--- a/docs/Examples/Example1_Gas_Cell_Calibration/Medium_Diads.xlsx
+++ b/docs/Examples/Example1_Gas_Cell_Calibration/Medium_Diads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
   <si>
     <t>filename</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Diad1_Voigt_Sigma</t>
   </si>
   <si>
-    <t>Residual_Diad1</t>
+    <t>Diad1_Residual</t>
   </si>
   <si>
     <t>Diad1_Prop_Lor</t>
@@ -67,7 +67,7 @@
     <t>Diad2_Voigt_Gamma</t>
   </si>
   <si>
-    <t>Residual_Diad2</t>
+    <t>Diad2_Residual</t>
   </si>
   <si>
     <t>Diad2_Prop_Lor</t>
@@ -106,43 +106,25 @@
     <t>C13_Sigma</t>
   </si>
   <si>
-    <t>Cap19-05X1</t>
-  </si>
-  <si>
-    <t>Cap19-05X2</t>
-  </si>
-  <si>
-    <t>Cap19-06X1</t>
-  </si>
-  <si>
-    <t>Cap19-06X2</t>
-  </si>
-  <si>
-    <t>Cap19-07X2</t>
-  </si>
-  <si>
-    <t>Cap19-08X1</t>
-  </si>
-  <si>
-    <t>Cap19-08X2</t>
-  </si>
-  <si>
-    <t>Cap19-12X1</t>
-  </si>
-  <si>
-    <t>Cap19-12X2</t>
-  </si>
-  <si>
-    <t>Cap19-17X1</t>
-  </si>
-  <si>
-    <t>Cap19-17X2</t>
-  </si>
-  <si>
-    <t>Cap19-18X1</t>
-  </si>
-  <si>
-    <t>Cap19-18X2</t>
+    <t>Diad2_Gauss_Cent</t>
+  </si>
+  <si>
+    <t>Diad2_Gauss_Area</t>
+  </si>
+  <si>
+    <t>Diad2_Gauss_Sigma</t>
+  </si>
+  <si>
+    <t>Diad1_Gauss_Cent</t>
+  </si>
+  <si>
+    <t>Diad1_Gauss_Area</t>
+  </si>
+  <si>
+    <t>Diad1_Gauss_Sigma</t>
+  </si>
+  <si>
+    <t>FG04_31_MI3 (1)</t>
   </si>
   <si>
     <t>FG04_31_MI3</t>
@@ -151,12 +133,51 @@
     <t>FG04_31_MI4 (1)</t>
   </si>
   <si>
-    <t>FG04_31_MI4</t>
+    <t>POC10</t>
+  </si>
+  <si>
+    <t>POC11</t>
+  </si>
+  <si>
+    <t>POC16</t>
+  </si>
+  <si>
+    <t>POC17</t>
+  </si>
+  <si>
+    <t>POC18</t>
+  </si>
+  <si>
+    <t>POC19</t>
   </si>
   <si>
     <t>POC20</t>
   </si>
   <si>
+    <t>POC21</t>
+  </si>
+  <si>
+    <t>POC22</t>
+  </si>
+  <si>
+    <t>POC23</t>
+  </si>
+  <si>
+    <t>POC24</t>
+  </si>
+  <si>
+    <t>POC26</t>
+  </si>
+  <si>
+    <t>POC27</t>
+  </si>
+  <si>
+    <t>POC28</t>
+  </si>
+  <si>
+    <t>POC29</t>
+  </si>
+  <si>
     <t>POC30</t>
   </si>
   <si>
@@ -203,36 +224,6 @@
   </si>
   <si>
     <t>POC45</t>
-  </si>
-  <si>
-    <t>POC47</t>
-  </si>
-  <si>
-    <t>POC48</t>
-  </si>
-  <si>
-    <t>POC49</t>
-  </si>
-  <si>
-    <t>POC50</t>
-  </si>
-  <si>
-    <t>POC51</t>
-  </si>
-  <si>
-    <t>POC52</t>
-  </si>
-  <si>
-    <t>POC53</t>
-  </si>
-  <si>
-    <t>POC55</t>
-  </si>
-  <si>
-    <t>POC56</t>
-  </si>
-  <si>
-    <t>POC57-0.04</t>
   </si>
   <si>
     <t>Flagged Warnings:</t>
@@ -593,13 +584,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE44"/>
+  <dimension ref="A1:AK35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:37">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,3790 +681,3457 @@
       <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:37">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C2">
-        <v>102.8055901012403</v>
+        <v>103.5025689618885</v>
       </c>
       <c r="D2">
-        <v>1286.621100559627</v>
+        <v>1284.782388925229</v>
       </c>
       <c r="E2">
-        <v>224.6096138190325</v>
+        <v>2025.930543005324</v>
       </c>
       <c r="F2">
-        <v>1286.621150562127</v>
+        <v>1284.782438927729</v>
       </c>
       <c r="G2">
-        <v>336.6721688653458</v>
+        <v>6199.386713251325</v>
       </c>
       <c r="H2">
-        <v>0.6334872211494517</v>
+        <v>1.18163776167961</v>
       </c>
       <c r="I2">
-        <v>1.773255146888856</v>
+        <v>6.174037294366258</v>
       </c>
       <c r="J2">
-        <v>0.3111781587925874</v>
+        <v>0.554125426592036</v>
       </c>
       <c r="K2">
-        <v>1.266974442298903</v>
+        <v>2.363275523359219</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M2">
-        <v>1389.426740663367</v>
+        <v>1388.284957887117</v>
       </c>
       <c r="N2">
-        <v>333.2923398851735</v>
+        <v>4090.369929815822</v>
       </c>
       <c r="O2">
-        <v>1389.426740663367</v>
+        <v>1388.285007889617</v>
       </c>
       <c r="P2">
-        <v>455.7211014185987</v>
+        <v>9750.408856825492</v>
       </c>
       <c r="Q2">
-        <v>0.6092497250342414</v>
+        <v>0.918253107009929</v>
       </c>
       <c r="S2">
-        <v>1.908746463337239</v>
+        <v>5.933789614380768</v>
       </c>
       <c r="T2">
-        <v>0.1594551035519094</v>
+        <v>0.5696802703821771</v>
       </c>
       <c r="U2">
-        <v>1.218499450068483</v>
+        <v>1.836506214019858</v>
       </c>
       <c r="V2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W2">
-        <v>1266.277893539623</v>
+        <v>1264.759344556284</v>
       </c>
       <c r="X2">
-        <v>31.91457222355959</v>
+        <v>1123.966751022198</v>
       </c>
       <c r="Y2">
-        <v>0.5816256700254802</v>
+        <v>1.985875150178413</v>
       </c>
       <c r="Z2">
-        <v>1410.605407058006</v>
+        <v>1409.687721872736</v>
       </c>
       <c r="AA2">
-        <v>25.39522573493748</v>
+        <v>1418.834832621418</v>
       </c>
       <c r="AB2">
-        <v>0.5845863466799479</v>
+        <v>1.321391357850652</v>
+      </c>
+      <c r="AC2">
+        <v>1370.216263100838</v>
+      </c>
+      <c r="AD2">
+        <v>82.36124522318464</v>
+      </c>
+      <c r="AE2">
+        <v>0.4571501310278908</v>
+      </c>
+      <c r="AF2">
+        <v>1381.067099035949</v>
+      </c>
+      <c r="AG2">
+        <v>857.6410667081138</v>
+      </c>
+      <c r="AH2">
+        <v>18.28600524111686</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:37">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C3">
-        <v>102.7595839649455</v>
+        <v>103.2408701534448</v>
       </c>
       <c r="D3">
-        <v>1286.620714031047</v>
+        <v>1285.256598341661</v>
       </c>
       <c r="E3">
-        <v>210.1796706631914</v>
+        <v>1317.576469414435</v>
       </c>
       <c r="F3">
-        <v>1286.620764033547</v>
+        <v>1285.256648344161</v>
       </c>
       <c r="G3">
-        <v>306.9724321930213</v>
+        <v>3642.84329220333</v>
       </c>
       <c r="H3">
-        <v>0.6383865448407688</v>
+        <v>1.069496423063685</v>
       </c>
       <c r="I3">
-        <v>2.07106898012511</v>
+        <v>5.158609223504361</v>
       </c>
       <c r="J3">
-        <v>0.2160733409082576</v>
+        <v>0.5487698923278731</v>
       </c>
       <c r="K3">
-        <v>1.276773089681538</v>
+        <v>2.13899284612737</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M3">
-        <v>1389.380398000993</v>
+        <v>1388.497468495106</v>
       </c>
       <c r="N3">
-        <v>320.5674623731563</v>
+        <v>2608.966087165342</v>
       </c>
       <c r="O3">
-        <v>1389.380347998493</v>
+        <v>1388.497518497606</v>
       </c>
       <c r="P3">
-        <v>420.6360612248039</v>
+        <v>5592.732052043096</v>
       </c>
       <c r="Q3">
-        <v>0.5988398242265743</v>
+        <v>0.8356942731022868</v>
       </c>
       <c r="S3">
-        <v>2.765011827090027</v>
+        <v>4.64872007332885</v>
       </c>
       <c r="T3">
-        <v>0.08817687940872126</v>
+        <v>0.5364802009744351</v>
       </c>
       <c r="U3">
-        <v>1.197679648453149</v>
+        <v>1.671388546204574</v>
       </c>
       <c r="V3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W3">
-        <v>1266.32718377557</v>
+        <v>1265.210453470486</v>
       </c>
       <c r="X3">
-        <v>54.60760526554007</v>
+        <v>598.5488697718421</v>
       </c>
       <c r="Y3">
-        <v>1.039133994453138</v>
+        <v>1.408205573925847</v>
       </c>
       <c r="Z3">
-        <v>1410.647554620475</v>
+        <v>1409.879972757741</v>
       </c>
       <c r="AA3">
-        <v>35.78699831922494</v>
+        <v>790.7253007324841</v>
       </c>
       <c r="AB3">
-        <v>0.2501892245700265</v>
+        <v>1.018607256598498</v>
+      </c>
+      <c r="AC3">
+        <v>1370.328853839304</v>
+      </c>
+      <c r="AD3">
+        <v>59.10450208884415</v>
+      </c>
+      <c r="AE3">
+        <v>0.4165642773717119</v>
+      </c>
+      <c r="AF3">
+        <v>1381.586904090171</v>
+      </c>
+      <c r="AG3">
+        <v>388.4006046616925</v>
+      </c>
+      <c r="AH3">
+        <v>16.66257109626212</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:37">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>102.9773754224191</v>
+        <v>103.7099875279018</v>
       </c>
       <c r="D4">
-        <v>1286.142237767746</v>
+        <v>1284.33869652025</v>
       </c>
       <c r="E4">
-        <v>920.4935290492161</v>
+        <v>922.5388884150183</v>
       </c>
       <c r="F4">
-        <v>1286.142287770246</v>
+        <v>1284.33874652275</v>
       </c>
       <c r="G4">
-        <v>1696.324883811872</v>
+        <v>2796.780946138135</v>
       </c>
       <c r="H4">
-        <v>0.7212904222261248</v>
+        <v>1.148573355523057</v>
       </c>
       <c r="I4">
-        <v>2.177302702733003</v>
+        <v>2.149858991618257</v>
       </c>
       <c r="J4">
-        <v>0.5176053510957577</v>
+        <v>0.6017597200607285</v>
       </c>
       <c r="K4">
-        <v>1.44258084445225</v>
+        <v>2.297146711046114</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M4">
-        <v>1389.119713195165</v>
+        <v>1388.048684048152</v>
       </c>
       <c r="N4">
-        <v>1508.364318263884</v>
+        <v>1856.707327568972</v>
       </c>
       <c r="O4">
-        <v>1389.119663192665</v>
+        <v>1388.048734050652</v>
       </c>
       <c r="P4">
-        <v>2443.250568463085</v>
+        <v>4492.531272381981</v>
       </c>
       <c r="Q4">
-        <v>0.6615841304737009</v>
+        <v>0.9147651333746794</v>
       </c>
       <c r="S4">
-        <v>2.216104297512464</v>
+        <v>2.910074067197035</v>
       </c>
       <c r="T4">
-        <v>0.4049130720894457</v>
+        <v>0.6180914248070061</v>
       </c>
       <c r="U4">
-        <v>1.323168260947402</v>
+        <v>1.829530266749359</v>
       </c>
       <c r="V4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W4">
-        <v>1265.962243336075</v>
+        <v>1264.206593043167</v>
       </c>
       <c r="X4">
-        <v>175.2229714197016</v>
+        <v>396.1825940116273</v>
       </c>
       <c r="Y4">
-        <v>0.8996683702309629</v>
+        <v>2.043592888209226</v>
       </c>
       <c r="Z4">
-        <v>1410.403302997616</v>
+        <v>1409.435170719134</v>
       </c>
       <c r="AA4">
-        <v>214.0865936465165</v>
+        <v>522.47794692862</v>
       </c>
       <c r="AB4">
-        <v>0.857111138550151</v>
+        <v>1.522163713814284</v>
       </c>
       <c r="AC4">
-        <v>1370.773465107819</v>
+        <v>1370.222927306514</v>
       </c>
       <c r="AD4">
-        <v>40.34983283573953</v>
+        <v>37.62549301579845</v>
       </c>
       <c r="AE4">
-        <v>0.3306014445199942</v>
+        <v>0.4561119863336153</v>
+      </c>
+      <c r="AF4">
+        <v>1381.069031312506</v>
+      </c>
+      <c r="AG4">
+        <v>438.2423513853706</v>
+      </c>
+      <c r="AH4">
+        <v>18.24447945334965</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:37">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>102.9412109092927</v>
+        <v>104.3060271332999</v>
       </c>
       <c r="D5">
-        <v>1286.176034244954</v>
+        <v>1283.014098975203</v>
       </c>
       <c r="E5">
-        <v>1186.68533446968</v>
+        <v>3855.511898196052</v>
       </c>
       <c r="F5">
-        <v>1286.176084247454</v>
+        <v>1283.014148977703</v>
       </c>
       <c r="G5">
-        <v>2091.852275469249</v>
+        <v>12127.95159996322</v>
       </c>
       <c r="H5">
-        <v>0.7007096379405054</v>
+        <v>1.133723206924789</v>
       </c>
       <c r="I5">
-        <v>3.208730284702936</v>
+        <v>8.872396576918739</v>
       </c>
       <c r="J5">
-        <v>0.4773656411428394</v>
+        <v>0.7247845442082594</v>
       </c>
       <c r="K5">
-        <v>1.401419275881011</v>
+        <v>2.267446413849577</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M5">
-        <v>1389.117345159247</v>
+        <v>1387.320126108503</v>
       </c>
       <c r="N5">
-        <v>1893.025453670518</v>
+        <v>7643.360015025801</v>
       </c>
       <c r="O5">
-        <v>1389.117295156747</v>
+        <v>1387.320176111003</v>
       </c>
       <c r="P5">
-        <v>2990.310283290652</v>
+        <v>20249.28831936628</v>
       </c>
       <c r="Q5">
-        <v>0.6441009148779744</v>
+        <v>0.9750231309121666</v>
       </c>
       <c r="S5">
-        <v>3.015289779798017</v>
+        <v>7.102088517422658</v>
       </c>
       <c r="T5">
-        <v>0.4093867427770488</v>
+        <v>0.6858244159488549</v>
       </c>
       <c r="U5">
-        <v>1.288201829755949</v>
+        <v>1.950046261824333</v>
       </c>
       <c r="V5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W5">
-        <v>1265.893529941289</v>
+        <v>1262.990788630961</v>
       </c>
       <c r="X5">
-        <v>264.700248948888</v>
+        <v>1865.106852057118</v>
       </c>
       <c r="Y5">
-        <v>0.931200794818056</v>
+        <v>3.216774848055126</v>
       </c>
       <c r="Z5">
-        <v>1410.407101187656</v>
+        <v>1408.695696838017</v>
       </c>
       <c r="AA5">
-        <v>273.4821990473851</v>
+        <v>2130.185016069041</v>
       </c>
       <c r="AB5">
-        <v>0.7425755703095008</v>
+        <v>2.11707261529676</v>
       </c>
       <c r="AC5">
-        <v>1370.698349757371</v>
+        <v>1369.676470450547</v>
       </c>
       <c r="AD5">
-        <v>42.42996860646692</v>
+        <v>143.9840049404786</v>
       </c>
       <c r="AE5">
-        <v>0.3218661906255978</v>
+        <v>0.4859899320463625</v>
+      </c>
+      <c r="AF5">
+        <v>1383.032666221383</v>
+      </c>
+      <c r="AG5">
+        <v>2042.561816307338</v>
+      </c>
+      <c r="AH5">
+        <v>19.03225120073381</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:37">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>102.6857205703263</v>
+        <v>104.2506500451982</v>
       </c>
       <c r="D6">
-        <v>1286.703927391232</v>
+        <v>1283.138802697714</v>
       </c>
       <c r="E6">
-        <v>62.37462750994679</v>
+        <v>3192.10368582654</v>
       </c>
       <c r="F6">
-        <v>1286.703977393732</v>
+        <v>1283.138852700215</v>
       </c>
       <c r="G6">
-        <v>84.66974971734996</v>
+        <v>10152.57710760084</v>
       </c>
       <c r="H6">
-        <v>0.6376502519278551</v>
+        <v>1.166999541924315</v>
       </c>
       <c r="I6">
-        <v>2.034200738917988</v>
+        <v>7.152845904294082</v>
       </c>
       <c r="J6">
-        <v>9.563345670926537E-10</v>
+        <v>0.681626636669165</v>
       </c>
       <c r="K6">
-        <v>1.27530050385571</v>
+        <v>2.33399908384863</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M6">
-        <v>1389.389747966559</v>
+        <v>1387.389452742913</v>
       </c>
       <c r="N6">
-        <v>96.18445065353157</v>
+        <v>6474.677688250504</v>
       </c>
       <c r="O6">
-        <v>1389.389697964059</v>
+        <v>1387.389502745413</v>
       </c>
       <c r="P6">
-        <v>124.5870733933524</v>
+        <v>17102.14601231299</v>
       </c>
       <c r="Q6">
-        <v>0.6084233895789198</v>
+        <v>0.9641187744220386</v>
       </c>
       <c r="S6">
-        <v>3.028424624954465</v>
+        <v>5.794216514871439</v>
       </c>
       <c r="T6">
-        <v>4.406354603414542E-08</v>
+        <v>0.7040099915112425</v>
       </c>
       <c r="U6">
-        <v>1.21684677915784</v>
+        <v>1.928237548844077</v>
       </c>
       <c r="V6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W6">
-        <v>1266.029926728211</v>
+        <v>1263.128287369341</v>
       </c>
       <c r="X6">
-        <v>13.18824364577735</v>
+        <v>1497.859148991304</v>
       </c>
       <c r="Y6">
-        <v>0.3573772607201146</v>
+        <v>3.031434524901154</v>
       </c>
       <c r="Z6">
-        <v>1410.655709895359</v>
+        <v>1408.763931974687</v>
       </c>
       <c r="AA6">
-        <v>5.23923932664139</v>
+        <v>1868.957711181531</v>
       </c>
       <c r="AB6">
-        <v>0.2303438746642271</v>
+        <v>2.095882684314504</v>
+      </c>
+      <c r="AC6">
+        <v>1369.752564041607</v>
+      </c>
+      <c r="AD6">
+        <v>135.8368053080717</v>
+      </c>
+      <c r="AE6">
+        <v>0.4807221701503044</v>
+      </c>
+      <c r="AF6">
+        <v>1380.707117451341</v>
+      </c>
+      <c r="AG6">
+        <v>1481.413683857086</v>
+      </c>
+      <c r="AH6">
+        <v>18.02987466387137</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:37">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C7">
-        <v>102.7989692201465</v>
+        <v>104.0261008035116</v>
       </c>
       <c r="D7">
-        <v>1286.53502393565</v>
+        <v>1283.619935291661</v>
       </c>
       <c r="E7">
-        <v>220.1082879845007</v>
+        <v>3209.207185750962</v>
       </c>
       <c r="F7">
-        <v>1286.53502393565</v>
+        <v>1283.619985294162</v>
       </c>
       <c r="G7">
-        <v>335.0522903012384</v>
+        <v>10496.96196234382</v>
       </c>
       <c r="H7">
-        <v>0.6557090885680108</v>
+        <v>1.22607805986422</v>
       </c>
       <c r="I7">
-        <v>1.605419310364716</v>
+        <v>6.968231223748575</v>
       </c>
       <c r="J7">
-        <v>0.2651753055287928</v>
+        <v>0.6292488603298091</v>
       </c>
       <c r="K7">
-        <v>1.311418177136022</v>
+        <v>2.45215611972844</v>
       </c>
       <c r="L7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M7">
-        <v>1389.334043158296</v>
+        <v>1387.646036095173</v>
       </c>
       <c r="N7">
-        <v>322.3923708054073</v>
+        <v>6595.495883792571</v>
       </c>
       <c r="O7">
-        <v>1389.333993155796</v>
+        <v>1387.646086097673</v>
       </c>
       <c r="P7">
-        <v>462.6359027527425</v>
+        <v>17036.91433347062</v>
       </c>
       <c r="Q7">
-        <v>0.6137593964709791</v>
+        <v>0.9696603206985176</v>
       </c>
       <c r="S7">
-        <v>2.640248699723836</v>
+        <v>6.704021322960319</v>
       </c>
       <c r="T7">
-        <v>0.2776791855301538</v>
+        <v>0.6359338686722541</v>
       </c>
       <c r="U7">
-        <v>1.227518792941958</v>
+        <v>1.939320641397035</v>
       </c>
       <c r="V7" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="W7">
+        <v>1263.585882120312</v>
+      </c>
+      <c r="X7">
+        <v>1555.250404510655</v>
+      </c>
+      <c r="Y7">
+        <v>2.836405752640114</v>
       </c>
       <c r="Z7">
-        <v>1410.617866490792</v>
+        <v>1409.064939307804</v>
       </c>
       <c r="AA7">
-        <v>51.51620535341678</v>
+        <v>1797.893994932811</v>
       </c>
       <c r="AB7">
-        <v>0.5977444346222675</v>
+        <v>1.819326499801938</v>
+      </c>
+      <c r="AC7">
+        <v>1369.866821418466</v>
+      </c>
+      <c r="AD7">
+        <v>137.0218405710265</v>
+      </c>
+      <c r="AE7">
+        <v>0.483348950995418</v>
+      </c>
+      <c r="AF7">
+        <v>1381.604655967008</v>
+      </c>
+      <c r="AG7">
+        <v>1548.049141069473</v>
+      </c>
+      <c r="AH7">
+        <v>18.26458515501248</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:37">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C8">
-        <v>102.7823504601445</v>
+        <v>103.9609886880908</v>
       </c>
       <c r="D8">
-        <v>1286.576910816088</v>
+        <v>1283.770208587817</v>
       </c>
       <c r="E8">
-        <v>212.8488592053265</v>
+        <v>2948.602509224464</v>
       </c>
       <c r="F8">
-        <v>1286.576960818588</v>
+        <v>1283.770258590317</v>
       </c>
       <c r="G8">
-        <v>321.7351137587453</v>
+        <v>9635.715006266639</v>
       </c>
       <c r="H8">
-        <v>0.6455928336963964</v>
+        <v>1.235464364053505</v>
       </c>
       <c r="I8">
-        <v>1.906798845116585</v>
+        <v>5.928189262917473</v>
       </c>
       <c r="J8">
-        <v>0.2817290065074616</v>
+        <v>0.6078943201575746</v>
       </c>
       <c r="K8">
-        <v>1.291185667392793</v>
+        <v>2.470928728107009</v>
       </c>
       <c r="L8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M8">
-        <v>1389.359361281233</v>
+        <v>1387.731197275908</v>
       </c>
       <c r="N8">
-        <v>321.3192491184516</v>
+        <v>6076.290864013416</v>
       </c>
       <c r="O8">
-        <v>1389.359311278733</v>
+        <v>1387.731247278408</v>
       </c>
       <c r="P8">
-        <v>416.2995917885058</v>
+        <v>15601.74545969024</v>
       </c>
       <c r="Q8">
-        <v>0.6040574486625815</v>
+        <v>0.9678311722689541</v>
       </c>
       <c r="S8">
-        <v>2.3721059152289</v>
+        <v>6.550207316371936</v>
       </c>
       <c r="T8">
-        <v>0.02305499105589931</v>
+        <v>0.6260202304851048</v>
       </c>
       <c r="U8">
-        <v>1.208114897325163</v>
+        <v>1.935662344537908</v>
       </c>
       <c r="V8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W8">
-        <v>1266.266094080763</v>
+        <v>1263.740894691031</v>
       </c>
       <c r="X8">
-        <v>37.56328619961116</v>
+        <v>1402.08490823713</v>
       </c>
       <c r="Y8">
-        <v>0.6809942911908453</v>
+        <v>2.738354435184113</v>
       </c>
       <c r="Z8">
-        <v>1410.604997567064</v>
+        <v>1409.164324327029</v>
       </c>
       <c r="AA8">
-        <v>42.93297363697405</v>
+        <v>1635.649251609585</v>
       </c>
       <c r="AB8">
-        <v>0.2623544250622137</v>
+        <v>1.710196487615742</v>
+      </c>
+      <c r="AC8">
+        <v>1369.902330680147</v>
+      </c>
+      <c r="AD8">
+        <v>117.6166219925424</v>
+      </c>
+      <c r="AE8">
+        <v>0.4821085795261653</v>
+      </c>
+      <c r="AF8">
+        <v>1382.495213991876</v>
+      </c>
+      <c r="AG8">
+        <v>1519.449357206128</v>
+      </c>
+      <c r="AH8">
+        <v>19.28004406973114</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:37">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C9">
-        <v>102.9754001653107</v>
+        <v>103.8722973410058</v>
       </c>
       <c r="D9">
-        <v>1286.103311953722</v>
+        <v>1283.955865057428</v>
       </c>
       <c r="E9">
-        <v>896.2525293153059</v>
+        <v>2397.431322178775</v>
       </c>
       <c r="F9">
-        <v>1286.103361956222</v>
+        <v>1283.955915059928</v>
       </c>
       <c r="G9">
-        <v>1639.448275493357</v>
+        <v>7860.986761498461</v>
       </c>
       <c r="H9">
-        <v>0.7329134660815226</v>
+        <v>1.243544288116456</v>
       </c>
       <c r="I9">
-        <v>2.028075381463807</v>
+        <v>5.021999120214767</v>
       </c>
       <c r="J9">
-        <v>0.4564161196398066</v>
+        <v>0.5999532925072359</v>
       </c>
       <c r="K9">
-        <v>1.465826932163045</v>
+        <v>2.487088576232912</v>
       </c>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M9">
-        <v>1389.078812124033</v>
+        <v>1387.828162398434</v>
       </c>
       <c r="N9">
-        <v>1459.760978323083</v>
+        <v>4953.441424910835</v>
       </c>
       <c r="O9">
-        <v>1389.078762121533</v>
+        <v>1387.828212400934</v>
       </c>
       <c r="P9">
-        <v>2397.22305314877</v>
+        <v>12616.36236221711</v>
       </c>
       <c r="Q9">
-        <v>0.6625529336299716</v>
+        <v>0.9625894389478331</v>
       </c>
       <c r="S9">
-        <v>2.319941869706147</v>
+        <v>5.385645212180648</v>
       </c>
       <c r="T9">
-        <v>0.4378093912022885</v>
+        <v>0.6187268264329916</v>
       </c>
       <c r="U9">
-        <v>1.325105867259943</v>
+        <v>1.925178877895666</v>
       </c>
       <c r="V9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W9">
-        <v>1265.877696220473</v>
+        <v>1263.952299812286</v>
       </c>
       <c r="X9">
-        <v>171.417465956339</v>
+        <v>1132.449631833486</v>
       </c>
       <c r="Y9">
-        <v>0.9313901191944396</v>
+        <v>2.669096555037808</v>
       </c>
       <c r="Z9">
-        <v>1410.363059304737</v>
+        <v>1409.227116375052</v>
       </c>
       <c r="AA9">
-        <v>212.9871538672664</v>
+        <v>1325.427157122384</v>
       </c>
       <c r="AB9">
-        <v>0.7876349515453347</v>
+        <v>1.629288018792084</v>
       </c>
       <c r="AC9">
-        <v>1372.237604945571</v>
+        <v>1369.978698809441</v>
       </c>
       <c r="AD9">
-        <v>13.83244241589734</v>
+        <v>100.285146464421</v>
       </c>
       <c r="AE9">
-        <v>0.3310915476547392</v>
+        <v>0.4795094301013614</v>
+      </c>
+      <c r="AF9">
+        <v>1381.998547094443</v>
+      </c>
+      <c r="AG9">
+        <v>1174.028532308689</v>
+      </c>
+      <c r="AH9">
+        <v>19.1803772009248</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:37">
       <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>102.94708644246</v>
+        <v>103.7653722891787</v>
       </c>
       <c r="D10">
-        <v>1286.145918503546</v>
+        <v>1284.202769855721</v>
       </c>
       <c r="E10">
-        <v>533.172656219509</v>
+        <v>2099.513856336334</v>
       </c>
       <c r="F10">
-        <v>1286.145968506046</v>
+        <v>1284.202819858221</v>
       </c>
       <c r="G10">
-        <v>952.3493264403465</v>
+        <v>6755.619966651094</v>
       </c>
       <c r="H10">
-        <v>0.7296832127206719</v>
+        <v>1.230297023613359</v>
       </c>
       <c r="I10">
-        <v>1.975340396997963</v>
+        <v>5.039787623157244</v>
       </c>
       <c r="J10">
-        <v>0.4045161318849489</v>
+        <v>0.5790388356243121</v>
       </c>
       <c r="K10">
-        <v>1.459366425441344</v>
+        <v>2.460594047226718</v>
       </c>
       <c r="L10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M10">
-        <v>1389.093004946006</v>
+        <v>1387.9681421449</v>
       </c>
       <c r="N10">
-        <v>879.2090301095086</v>
+        <v>4291.007471114089</v>
       </c>
       <c r="O10">
-        <v>1389.093054948506</v>
+        <v>1387.9681921474</v>
       </c>
       <c r="P10">
-        <v>1391.42140976273</v>
+        <v>10710.06709933581</v>
       </c>
       <c r="Q10">
-        <v>0.6449012161936417</v>
+        <v>0.9486814543627063</v>
       </c>
       <c r="S10">
-        <v>2.11650108716624</v>
+        <v>5.575023616495497</v>
       </c>
       <c r="T10">
-        <v>0.4109728342957012</v>
+        <v>0.6036192141734393</v>
       </c>
       <c r="U10">
-        <v>1.289802432387283</v>
+        <v>1.897362908725413</v>
       </c>
       <c r="V10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W10">
-        <v>1265.889710642899</v>
+        <v>1264.162073594684</v>
       </c>
       <c r="X10">
-        <v>96.08181720000948</v>
+        <v>930.6986702229433</v>
       </c>
       <c r="Y10">
-        <v>0.7311990739659359</v>
+        <v>2.300680232656277</v>
       </c>
       <c r="Z10">
-        <v>1410.415886266758</v>
+        <v>1409.403695502454</v>
       </c>
       <c r="AA10">
-        <v>104.9420730653179</v>
+        <v>1144.753573324406</v>
       </c>
       <c r="AB10">
-        <v>0.7494426558302814</v>
+        <v>1.546950334693985</v>
       </c>
       <c r="AC10">
-        <v>1370.799601392132</v>
+        <v>1370.105900714638</v>
       </c>
       <c r="AD10">
-        <v>21.84401953284096</v>
+        <v>90.95286711259013</v>
       </c>
       <c r="AE10">
-        <v>0.3222924041377855</v>
+        <v>0.4727749587328476</v>
+      </c>
+      <c r="AF10">
+        <v>1381.057649092364</v>
+      </c>
+      <c r="AG10">
+        <v>947.4984317390167</v>
+      </c>
+      <c r="AH10">
+        <v>18.91099834931403</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:37">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C11">
-        <v>102.8160045057161</v>
+        <v>103.6685044393637</v>
       </c>
       <c r="D11">
-        <v>1286.343355190082</v>
+        <v>1284.419462899673</v>
       </c>
       <c r="E11">
-        <v>242.2540204113231</v>
+        <v>1872.823500404936</v>
       </c>
       <c r="F11">
-        <v>1286.343355190082</v>
+        <v>1284.419512902173</v>
       </c>
       <c r="G11">
-        <v>375.2031988555228</v>
+        <v>5888.636100031392</v>
       </c>
       <c r="H11">
-        <v>0.6845415678658096</v>
+        <v>1.20499571769612</v>
       </c>
       <c r="I11">
-        <v>2.049196104130471</v>
+        <v>5.457535625401506</v>
       </c>
       <c r="J11">
-        <v>0.185655760595126</v>
+        <v>0.5732465027856082</v>
       </c>
       <c r="K11">
-        <v>1.369083135731619</v>
+        <v>2.40999143539224</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M11">
-        <v>1389.159359695798</v>
+        <v>1388.087967339036</v>
       </c>
       <c r="N11">
-        <v>366.7872653256723</v>
+        <v>3826.890288596453</v>
       </c>
       <c r="O11">
-        <v>1389.159359695798</v>
+        <v>1388.088017341536</v>
       </c>
       <c r="P11">
-        <v>517.813161254204</v>
+        <v>9270.400406736069</v>
       </c>
       <c r="Q11">
-        <v>0.6186177539891247</v>
+        <v>0.9275925297890572</v>
       </c>
       <c r="S11">
-        <v>2.238120182394155</v>
+        <v>5.062781452212374</v>
       </c>
       <c r="T11">
-        <v>0.2082280263245472</v>
+        <v>0.5847522964541959</v>
       </c>
       <c r="U11">
-        <v>1.237235507978249</v>
+        <v>1.855185059578114</v>
       </c>
       <c r="V11" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="W11">
+        <v>1264.34420014005</v>
+      </c>
+      <c r="X11">
+        <v>860.6968304407931</v>
+      </c>
+      <c r="Y11">
+        <v>2.279667483211655</v>
       </c>
       <c r="Z11">
-        <v>1410.387239083391</v>
+        <v>1409.477686091423</v>
       </c>
       <c r="AA11">
-        <v>32.07731699632706</v>
+        <v>989.9279339607142</v>
       </c>
       <c r="AB11">
-        <v>0.6432420957908963</v>
+        <v>1.483229619308736</v>
+      </c>
+      <c r="AC11">
+        <v>1370.153329272597</v>
+      </c>
+      <c r="AD11">
+        <v>72.14016588431608</v>
+      </c>
+      <c r="AE11">
+        <v>0.4624834354461316</v>
+      </c>
+      <c r="AF11">
+        <v>1381.055776631848</v>
+      </c>
+      <c r="AG11">
+        <v>799.393734294102</v>
+      </c>
+      <c r="AH11">
+        <v>18.0914504669856</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:37">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C12">
-        <v>102.8253919308345</v>
+        <v>103.600032236709</v>
       </c>
       <c r="D12">
-        <v>1286.497264960275</v>
+        <v>1284.569067650163</v>
       </c>
       <c r="E12">
-        <v>445.324622060049</v>
+        <v>2596.54120906659</v>
       </c>
       <c r="F12">
-        <v>1286.497314962775</v>
+        <v>1284.569117652663</v>
       </c>
       <c r="G12">
-        <v>691.9154047771509</v>
+        <v>7917.262545926441</v>
       </c>
       <c r="H12">
-        <v>0.6637934262873955</v>
+        <v>1.15795708577287</v>
       </c>
       <c r="I12">
-        <v>2.538444738068544</v>
+        <v>7.055884855661122</v>
       </c>
       <c r="J12">
-        <v>0.2808893026814239</v>
+        <v>0.59595215502037</v>
       </c>
       <c r="K12">
-        <v>1.327586852574791</v>
+        <v>2.315914171545739</v>
       </c>
       <c r="L12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M12">
-        <v>1389.322706893609</v>
+        <v>1388.169099886872</v>
       </c>
       <c r="N12">
-        <v>680.6616800239143</v>
+        <v>5248.259159128937</v>
       </c>
       <c r="O12">
-        <v>1389.322706893609</v>
+        <v>1388.169149889372</v>
       </c>
       <c r="P12">
-        <v>974.7596103809302</v>
+        <v>12470.87205137317</v>
       </c>
       <c r="Q12">
-        <v>0.6175270437300351</v>
+        <v>0.9063630101600593</v>
       </c>
       <c r="S12">
-        <v>2.730379802719991</v>
+        <v>7.327568262383606</v>
       </c>
       <c r="T12">
-        <v>0.2543294860763184</v>
+        <v>0.5936278681637729</v>
       </c>
       <c r="U12">
-        <v>1.23505408746007</v>
+        <v>1.812726020320119</v>
       </c>
       <c r="V12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W12">
-        <v>1266.257849753662</v>
+        <v>1264.458667643739</v>
       </c>
       <c r="X12">
-        <v>79.1674627595747</v>
+        <v>1112.706842261321</v>
       </c>
       <c r="Y12">
-        <v>0.7281188015104286</v>
+        <v>2.185948864918933</v>
       </c>
       <c r="Z12">
-        <v>1410.524958902432</v>
+        <v>1409.569670851406</v>
       </c>
       <c r="AA12">
-        <v>74.31309649497031</v>
+        <v>1330.672083814933</v>
       </c>
       <c r="AB12">
-        <v>0.6252962692255352</v>
+        <v>1.373326659865822</v>
+      </c>
+      <c r="AC12">
+        <v>1370.160646691855</v>
+      </c>
+      <c r="AD12">
+        <v>111.8394034355986</v>
+      </c>
+      <c r="AE12">
+        <v>0.4517302373503267</v>
+      </c>
+      <c r="AF12">
+        <v>1381.054688557143</v>
+      </c>
+      <c r="AG12">
+        <v>1012.412835577029</v>
+      </c>
+      <c r="AH12">
+        <v>18.06920949397663</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:37">
       <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C13">
-        <v>102.8840062830866</v>
+        <v>103.5463829613607</v>
       </c>
       <c r="D13">
-        <v>1286.211853439394</v>
+        <v>1284.69004373599</v>
       </c>
       <c r="E13">
-        <v>670.6702135383302</v>
+        <v>2488.932079831929</v>
       </c>
       <c r="F13">
-        <v>1286.211903441894</v>
+        <v>1284.69009373849</v>
       </c>
       <c r="G13">
-        <v>1112.210981814327</v>
+        <v>7369.344431686128</v>
       </c>
       <c r="H13">
-        <v>0.6717629914590478</v>
+        <v>1.122558477825553</v>
       </c>
       <c r="I13">
-        <v>2.189009763643276</v>
+        <v>5.935128467005621</v>
       </c>
       <c r="J13">
-        <v>0.4272422869722132</v>
+        <v>0.5996841243127965</v>
       </c>
       <c r="K13">
-        <v>1.343525982918096</v>
+        <v>2.245116955651107</v>
       </c>
       <c r="L13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M13">
-        <v>1389.095959727481</v>
+        <v>1388.23642669735</v>
       </c>
       <c r="N13">
-        <v>1052.607753339384</v>
+        <v>4936.987266419704</v>
       </c>
       <c r="O13">
-        <v>1389.095909724981</v>
+        <v>1388.236476699851</v>
       </c>
       <c r="P13">
-        <v>1591.60312845536</v>
+        <v>11445.24723041732</v>
       </c>
       <c r="Q13">
-        <v>0.6297502783821755</v>
+        <v>0.887234262359641</v>
       </c>
       <c r="S13">
-        <v>2.162337831445108</v>
+        <v>6.777523900461879</v>
       </c>
       <c r="T13">
-        <v>0.3516788186107476</v>
+        <v>0.5847304027172852</v>
       </c>
       <c r="U13">
-        <v>1.259500556764351</v>
+        <v>1.774468524719282</v>
       </c>
       <c r="V13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W13">
-        <v>1265.996703737489</v>
+        <v>1264.583921118047</v>
       </c>
       <c r="X13">
-        <v>117.7053251983629</v>
+        <v>933.5311777768709</v>
       </c>
       <c r="Y13">
-        <v>0.8482680706879058</v>
+        <v>1.92113248495559</v>
       </c>
       <c r="Z13">
-        <v>1410.374899704</v>
+        <v>1409.627129321759</v>
       </c>
       <c r="AA13">
-        <v>128.7119747216973</v>
+        <v>1193.904955025007</v>
       </c>
       <c r="AB13">
-        <v>0.7088913097795355</v>
+        <v>1.342492514451655</v>
       </c>
       <c r="AC13">
-        <v>1370.764016232836</v>
+        <v>1370.22601292961</v>
       </c>
       <c r="AD13">
-        <v>22.90470474259168</v>
+        <v>94.80425363279934</v>
       </c>
       <c r="AE13">
-        <v>0.3146994480177396</v>
+        <v>0.4420583109778212</v>
+      </c>
+      <c r="AF13">
+        <v>1381.054675585953</v>
+      </c>
+      <c r="AG13">
+        <v>897.3974634016131</v>
+      </c>
+      <c r="AH13">
+        <v>17.68233239189748</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:37">
       <c r="A14" s="1">
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C14">
-        <v>102.8796708835193</v>
+        <v>103.5034918947993</v>
       </c>
       <c r="D14">
-        <v>1286.384827385504</v>
+        <v>1284.813953664592</v>
       </c>
       <c r="E14">
-        <v>698.6657921298926</v>
+        <v>2396.63770729631</v>
       </c>
       <c r="F14">
-        <v>1286.384877388004</v>
+        <v>1284.814003667092</v>
       </c>
       <c r="G14">
-        <v>1132.088823741904</v>
+        <v>6948.578259021415</v>
       </c>
       <c r="H14">
-        <v>0.6736757539522844</v>
+        <v>1.104122563114895</v>
       </c>
       <c r="I14">
-        <v>3.323839703071039</v>
+        <v>7.023291916626619</v>
       </c>
       <c r="J14">
-        <v>0.3567166449089828</v>
+        <v>0.5886747878033973</v>
       </c>
       <c r="K14">
-        <v>1.347351507904569</v>
+        <v>2.208245126229791</v>
       </c>
       <c r="L14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M14">
-        <v>1389.264498269024</v>
+        <v>1388.317445559392</v>
       </c>
       <c r="N14">
-        <v>1084.440788544693</v>
+        <v>4774.386510834103</v>
       </c>
       <c r="O14">
-        <v>1389.264548271524</v>
+        <v>1388.317495561892</v>
       </c>
       <c r="P14">
-        <v>1603.545036782327</v>
+        <v>10805.31686343743</v>
       </c>
       <c r="Q14">
-        <v>0.6243292176462568</v>
+        <v>0.8648191372480848</v>
       </c>
       <c r="S14">
-        <v>3.392558022865032</v>
+        <v>6.833842091456769</v>
       </c>
       <c r="T14">
-        <v>0.3137273444228676</v>
+        <v>0.588496211121876</v>
       </c>
       <c r="U14">
-        <v>1.248658435292514</v>
+        <v>1.72963827449617</v>
       </c>
       <c r="V14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W14">
-        <v>1266.153692188911</v>
+        <v>1264.723667550817</v>
       </c>
       <c r="X14">
-        <v>141.0650177100912</v>
+        <v>963.9440735418942</v>
       </c>
       <c r="Y14">
-        <v>0.8176373505864143</v>
+        <v>1.967086796482732</v>
       </c>
       <c r="Z14">
-        <v>1410.54228421546</v>
+        <v>1409.693222332882</v>
       </c>
       <c r="AA14">
-        <v>126.8239989280499</v>
+        <v>1156.777242235342</v>
       </c>
       <c r="AB14">
-        <v>0.7071057794193715</v>
+        <v>1.281664150247978</v>
       </c>
       <c r="AC14">
-        <v>1370.833574014715</v>
+        <v>1370.229055989642</v>
       </c>
       <c r="AD14">
-        <v>19.49627388428174</v>
+        <v>109.8643859911042</v>
       </c>
       <c r="AE14">
-        <v>0.3119337522525792</v>
+        <v>0.4306923265739998</v>
+      </c>
+      <c r="AF14">
+        <v>1381.586900000001</v>
+      </c>
+      <c r="AG14">
+        <v>829.959438751026</v>
+      </c>
+      <c r="AH14">
+        <v>17.22769522305119</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:37">
       <c r="A15" s="1">
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C15">
-        <v>103.2407789628148</v>
+        <v>103.4548440391661</v>
       </c>
       <c r="D15">
-        <v>1285.256509927521</v>
+        <v>1284.906259892627</v>
       </c>
       <c r="E15">
-        <v>1317.567897091061</v>
+        <v>2322.718456597142</v>
       </c>
       <c r="F15">
-        <v>1285.256559930021</v>
+        <v>1284.906309895127</v>
       </c>
       <c r="G15">
-        <v>3642.828182553853</v>
+        <v>6526.132407873967</v>
       </c>
       <c r="H15">
-        <v>1.069511451766251</v>
+        <v>1.067755540916005</v>
       </c>
       <c r="I15">
-        <v>5.158494024396302</v>
+        <v>5.890219705262596</v>
       </c>
       <c r="J15">
-        <v>0.5487401777822166</v>
+        <v>0.5936232523485446</v>
       </c>
       <c r="K15">
-        <v>2.139022903532502</v>
+        <v>2.135511081832011</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M15">
-        <v>1388.497388895336</v>
+        <v>1388.361103931793</v>
       </c>
       <c r="N15">
-        <v>2608.508794280448</v>
+        <v>4559.569423564882</v>
       </c>
       <c r="O15">
-        <v>1388.497338892836</v>
+        <v>1388.361153934293</v>
       </c>
       <c r="P15">
-        <v>5656.614950503998</v>
+        <v>10094.98152189347</v>
       </c>
       <c r="Q15">
-        <v>0.8351215894799744</v>
+        <v>0.8484283874177407</v>
       </c>
       <c r="S15">
-        <v>4.669884374432447</v>
+        <v>6.468440672023305</v>
       </c>
       <c r="T15">
-        <v>0.559311370808566</v>
+        <v>0.5808516132094964</v>
       </c>
       <c r="U15">
-        <v>1.670243178959949</v>
+        <v>1.696856774835481</v>
       </c>
       <c r="V15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W15">
-        <v>1265.210439478499</v>
+        <v>1264.769326022992</v>
       </c>
       <c r="X15">
-        <v>598.5711363221146</v>
+        <v>822.0466798974295</v>
       </c>
       <c r="Y15">
-        <v>1.408294045131258</v>
+        <v>1.779579347483372</v>
       </c>
       <c r="Z15">
-        <v>1409.877548021207</v>
+        <v>1409.748660719213</v>
       </c>
       <c r="AA15">
-        <v>776.2535829118409</v>
+        <v>1075.309312327725</v>
       </c>
       <c r="AB15">
-        <v>1.016252065828917</v>
+        <v>1.247854917903752</v>
       </c>
       <c r="AC15">
-        <v>1370.299587139649</v>
+        <v>1370.274560882958</v>
       </c>
       <c r="AD15">
-        <v>81.40218736009649</v>
+        <v>102.45775810827</v>
       </c>
       <c r="AE15">
-        <v>0.4168529878842909</v>
+        <v>0.4226448973631609</v>
+      </c>
+      <c r="AF15">
+        <v>1381.587104785057</v>
+      </c>
+      <c r="AG15">
+        <v>739.6619068540869</v>
+      </c>
+      <c r="AH15">
+        <v>16.90579589452964</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:37">
       <c r="A16" s="1">
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>103.7097002729488</v>
+        <v>103.3935576279146</v>
       </c>
       <c r="D16">
-        <v>1284.338696958891</v>
+        <v>1285.05962683044</v>
       </c>
       <c r="E16">
-        <v>922.5386585998286</v>
+        <v>2325.039090055861</v>
       </c>
       <c r="F16">
-        <v>1284.338746961392</v>
+        <v>1285.05967683294</v>
       </c>
       <c r="G16">
-        <v>2796.777526798034</v>
+        <v>6181.717390185915</v>
       </c>
       <c r="H16">
-        <v>1.148573786268707</v>
+        <v>0.9993714109887689</v>
       </c>
       <c r="I16">
-        <v>2.149885912257316</v>
+        <v>5.469887477634123</v>
       </c>
       <c r="J16">
-        <v>0.6017565817752606</v>
+        <v>0.6208387877717153</v>
       </c>
       <c r="K16">
-        <v>2.297147572537414</v>
+        <v>1.998742821977538</v>
       </c>
       <c r="L16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M16">
-        <v>1388.04849723684</v>
+        <v>1388.453184458355</v>
       </c>
       <c r="N16">
-        <v>1857.680674395034</v>
+        <v>4440.44355935778</v>
       </c>
       <c r="O16">
-        <v>1388.04844723434</v>
+        <v>1388.453234460855</v>
       </c>
       <c r="P16">
-        <v>4581.008336356091</v>
+        <v>9436.963646973287</v>
       </c>
       <c r="Q16">
-        <v>0.9140380482629511</v>
+        <v>0.8127820962353964</v>
       </c>
       <c r="S16">
-        <v>3.51007572705472</v>
+        <v>5.730687065960862</v>
       </c>
       <c r="T16">
-        <v>0.6550531493954189</v>
+        <v>0.5847918530964276</v>
       </c>
       <c r="U16">
-        <v>1.828076096525902</v>
+        <v>1.625564192470793</v>
       </c>
       <c r="V16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W16">
-        <v>1264.206578465222</v>
+        <v>1264.968585334458</v>
       </c>
       <c r="X16">
-        <v>396.2028359606486</v>
+        <v>772.342421748625</v>
       </c>
       <c r="Y16">
-        <v>2.043774649113944</v>
+        <v>1.643655145189853</v>
       </c>
       <c r="Z16">
-        <v>1409.417092486725</v>
+        <v>1409.845435452521</v>
       </c>
       <c r="AA16">
-        <v>533.4528367985273</v>
+        <v>1033.033781228501</v>
       </c>
       <c r="AB16">
-        <v>1.558370024014355</v>
+        <v>1.17315569188696</v>
       </c>
       <c r="AC16">
-        <v>1370.217090411967</v>
+        <v>1370.316477635146</v>
       </c>
       <c r="AD16">
-        <v>64.48343335693143</v>
+        <v>101.4702278177562</v>
       </c>
       <c r="AE16">
-        <v>0.4562893454226851</v>
+        <v>0.4052224880260806</v>
+      </c>
+      <c r="AF16">
+        <v>1381.586900000004</v>
+      </c>
+      <c r="AG16">
+        <v>615.5591271429884</v>
+      </c>
+      <c r="AH16">
+        <v>16.20889952105988</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:34">
       <c r="A17" s="1">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C17">
-        <v>103.4175291494134</v>
+        <v>103.3651452401311</v>
       </c>
       <c r="D17">
-        <v>1284.88437560771</v>
+        <v>1285.121697504421</v>
       </c>
       <c r="E17">
-        <v>548.8726202930238</v>
+        <v>2585.029256994835</v>
       </c>
       <c r="F17">
-        <v>1284.88442561021</v>
+        <v>1285.121747506921</v>
       </c>
       <c r="G17">
-        <v>1568.7336708113</v>
+        <v>6752.727603830856</v>
       </c>
       <c r="H17">
-        <v>1.079868050458035</v>
+        <v>0.9865807372535207</v>
       </c>
       <c r="I17">
-        <v>2.266708483424015</v>
+        <v>6.756613689661127</v>
       </c>
       <c r="J17">
-        <v>0.6081938480905886</v>
+        <v>0.6089755688339125</v>
       </c>
       <c r="K17">
-        <v>2.159736100916069</v>
+        <v>1.973161474507041</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>1388.302004762123</v>
+        <v>1388.486942749553</v>
       </c>
       <c r="N17">
-        <v>1108.085737767967</v>
+        <v>4876.984525473892</v>
       </c>
       <c r="O17">
-        <v>1388.301954759623</v>
+        <v>1388.486892747052</v>
       </c>
       <c r="P17">
-        <v>2484.730488673055</v>
+        <v>10213.85381892693</v>
       </c>
       <c r="Q17">
-        <v>0.8460219514377698</v>
+        <v>0.8114586352689492</v>
       </c>
       <c r="S17">
-        <v>2.602541681256802</v>
+        <v>9.465041484124926</v>
       </c>
       <c r="T17">
-        <v>0.6109728170554275</v>
+        <v>0.5576916350717993</v>
       </c>
       <c r="U17">
-        <v>1.69204390287554</v>
+        <v>1.622917270537898</v>
       </c>
       <c r="V17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W17">
-        <v>1264.775134994546</v>
+        <v>1265.004938080015</v>
       </c>
       <c r="X17">
-        <v>205.7724520937339</v>
+        <v>862.6088845832733</v>
       </c>
       <c r="Y17">
-        <v>1.755715889197963</v>
+        <v>1.636279595468475</v>
       </c>
       <c r="Z17">
-        <v>1409.711828666435</v>
+        <v>1409.845605988493</v>
       </c>
       <c r="AA17">
-        <v>253.8787288805055</v>
+        <v>877.9840747209914</v>
       </c>
       <c r="AB17">
-        <v>1.214023445807388</v>
+        <v>1.121160692480326</v>
       </c>
       <c r="AC17">
-        <v>1370.262688042509</v>
+        <v>1370.33454265225</v>
       </c>
       <c r="AD17">
-        <v>40.6288800707526</v>
+        <v>111.0987450849537</v>
       </c>
       <c r="AE17">
-        <v>0.4223311393061437</v>
+        <v>0.4043032217178208</v>
+      </c>
+      <c r="AF17">
+        <v>1395.586717276705</v>
+      </c>
+      <c r="AG17">
+        <v>1202.978030291562</v>
+      </c>
+      <c r="AH17">
+        <v>16.17212882824779</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:34">
       <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C18">
-        <v>103.6683491378933</v>
+        <v>103.2707881740471</v>
       </c>
       <c r="D18">
-        <v>1284.419463179161</v>
+        <v>1285.368031407907</v>
       </c>
       <c r="E18">
-        <v>1872.824979173804</v>
+        <v>2450.572947496967</v>
       </c>
       <c r="F18">
-        <v>1284.419513181661</v>
+        <v>1285.368081410407</v>
       </c>
       <c r="G18">
-        <v>5888.652364238065</v>
+        <v>5879.034797035802</v>
       </c>
       <c r="H18">
-        <v>1.20499410646136</v>
+        <v>0.9086935911530621</v>
       </c>
       <c r="I18">
-        <v>5.457489859259095</v>
+        <v>5.358859371696196</v>
       </c>
       <c r="J18">
-        <v>0.5732545632932544</v>
+        <v>0.601517047674736</v>
       </c>
       <c r="K18">
-        <v>2.409988212922721</v>
+        <v>1.817387182306124</v>
       </c>
       <c r="L18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>1388.087912322055</v>
+        <v>1388.638819581954</v>
       </c>
       <c r="N18">
-        <v>3833.362037325242</v>
+        <v>4535.95327445139</v>
       </c>
       <c r="O18">
-        <v>1388.087862319555</v>
+        <v>1388.638869584454</v>
       </c>
       <c r="P18">
-        <v>9475.143447923992</v>
+        <v>8933.577642953991</v>
       </c>
       <c r="Q18">
-        <v>0.9265980911721829</v>
+        <v>0.7612468950120763</v>
       </c>
       <c r="S18">
-        <v>7.085669141949456</v>
+        <v>5.220804649569674</v>
       </c>
       <c r="T18">
-        <v>0.6271876553598784</v>
+        <v>0.5557114786450956</v>
       </c>
       <c r="U18">
-        <v>1.853196182344366</v>
+        <v>1.522493790024153</v>
       </c>
       <c r="V18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W18">
-        <v>1264.344208843684</v>
+        <v>1265.245955960716</v>
       </c>
       <c r="X18">
-        <v>860.649600069093</v>
+        <v>744.3279350291813</v>
       </c>
       <c r="Y18">
-        <v>2.27944567522512</v>
+        <v>1.437533805390741</v>
       </c>
       <c r="Z18">
-        <v>1409.45913652981</v>
+        <v>1410.0022814075</v>
       </c>
       <c r="AA18">
-        <v>1057.630503233597</v>
+        <v>967.1972232559417</v>
       </c>
       <c r="AB18">
-        <v>1.556849963286087</v>
+        <v>1.032626834663987</v>
       </c>
       <c r="AC18">
-        <v>1370.169387196477</v>
+        <v>1370.580896414545</v>
       </c>
       <c r="AD18">
-        <v>123.6354714394227</v>
+        <v>101.2233573195221</v>
       </c>
       <c r="AE18">
-        <v>0.4625590464215648</v>
+        <v>0.3799225997219037</v>
+      </c>
+      <c r="AF18">
+        <v>1381.586900000006</v>
+      </c>
+      <c r="AG18">
+        <v>436.6766112993326</v>
+      </c>
+      <c r="AH18">
+        <v>15.19690398889287</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:34">
       <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C19">
-        <v>103.1252710007964</v>
+        <v>103.1903672620506</v>
       </c>
       <c r="D19">
-        <v>1285.703612812319</v>
+        <v>1285.554098593069</v>
       </c>
       <c r="E19">
-        <v>2058.914446166538</v>
+        <v>2261.605354752287</v>
       </c>
       <c r="F19">
-        <v>1285.703662814819</v>
+        <v>1285.554148595569</v>
       </c>
       <c r="G19">
-        <v>4389.94916687396</v>
+        <v>5032.758329058962</v>
       </c>
       <c r="H19">
-        <v>0.8204531236309602</v>
+        <v>0.8440672643162637</v>
       </c>
       <c r="I19">
-        <v>3.88211220351241</v>
+        <v>4.165196780136003</v>
       </c>
       <c r="J19">
-        <v>0.5614815952571084</v>
+        <v>0.5978462110811092</v>
       </c>
       <c r="K19">
-        <v>1.64090624726192</v>
+        <v>1.688134528632527</v>
       </c>
       <c r="L19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M19">
-        <v>1388.828983818116</v>
+        <v>1388.74446585512</v>
       </c>
       <c r="N19">
-        <v>3709.397285165281</v>
+        <v>4071.362247802999</v>
       </c>
       <c r="O19">
-        <v>1388.828933815616</v>
+        <v>1388.74451585762</v>
       </c>
       <c r="P19">
-        <v>6753.127586608442</v>
+        <v>7650.49898296584</v>
       </c>
       <c r="Q19">
-        <v>0.7108223001286644</v>
+        <v>0.7353565930543221</v>
       </c>
       <c r="S19">
-        <v>3.594078650043697</v>
+        <v>4.465816475782313</v>
       </c>
       <c r="T19">
-        <v>0.5238295006657628</v>
+        <v>0.5233741243655273</v>
       </c>
       <c r="U19">
-        <v>1.421644600257329</v>
+        <v>1.470713186108644</v>
       </c>
       <c r="V19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W19">
-        <v>1265.546910585514</v>
+        <v>1265.417623921856</v>
       </c>
       <c r="X19">
-        <v>528.8301167980744</v>
+        <v>634.577664763335</v>
       </c>
       <c r="Y19">
-        <v>1.197405866578045</v>
+        <v>1.259809510223814</v>
       </c>
       <c r="Z19">
-        <v>1410.087549852962</v>
+        <v>1410.075174622546</v>
       </c>
       <c r="AA19">
-        <v>672.1564012123152</v>
+        <v>804.176133496725</v>
       </c>
       <c r="AB19">
-        <v>0.8699190533038033</v>
+        <v>0.9556802779002791</v>
       </c>
       <c r="AC19">
-        <v>1370.675824270695</v>
+        <v>1370.647885088767</v>
       </c>
       <c r="AD19">
-        <v>91.02463635997363</v>
+        <v>85.17573906054466</v>
       </c>
       <c r="AE19">
-        <v>0.3549347311165698</v>
+        <v>0.3667307148241742</v>
+      </c>
+      <c r="AF19">
+        <v>1381.5869</v>
+      </c>
+      <c r="AG19">
+        <v>348.2646934708653</v>
+      </c>
+      <c r="AH19">
+        <v>14.66929973054157</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:34">
       <c r="A20" s="1">
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C20">
-        <v>103.0190212922732</v>
+        <v>103.125359848875</v>
       </c>
       <c r="D20">
-        <v>1285.956360530768</v>
+        <v>1285.703612919761</v>
       </c>
       <c r="E20">
-        <v>7081.384296017904</v>
+        <v>2058.913713875982</v>
       </c>
       <c r="F20">
-        <v>1285.956410533268</v>
+        <v>1285.703662922261</v>
       </c>
       <c r="G20">
-        <v>13792.9221712317</v>
+        <v>4389.947780244084</v>
       </c>
       <c r="H20">
-        <v>0.7649369026717137</v>
+        <v>0.8204537277004733</v>
       </c>
       <c r="I20">
-        <v>11.69522568738774</v>
+        <v>3.882004018219325</v>
       </c>
       <c r="J20">
-        <v>0.508987342377775</v>
+        <v>0.5614796904039859</v>
       </c>
       <c r="K20">
-        <v>1.529873805343427</v>
+        <v>1.640907455400947</v>
       </c>
       <c r="L20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M20">
-        <v>1388.975481828041</v>
+        <v>1388.828972768636</v>
       </c>
       <c r="N20">
-        <v>12155.24090405866</v>
+        <v>3711.967936003738</v>
       </c>
       <c r="O20">
-        <v>1388.975431825541</v>
+        <v>1388.829022771136</v>
       </c>
       <c r="P20">
-        <v>20704.06767165739</v>
+        <v>6727.3675363496</v>
       </c>
       <c r="Q20">
-        <v>0.6792926605571197</v>
+        <v>0.7111424524148574</v>
       </c>
       <c r="S20">
-        <v>11.71076322722051</v>
+        <v>4.307663410697703</v>
       </c>
       <c r="T20">
-        <v>0.4685782164197362</v>
+        <v>0.5158240217688459</v>
       </c>
       <c r="U20">
-        <v>1.358585321114239</v>
+        <v>1.422284904829715</v>
       </c>
       <c r="V20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W20">
-        <v>1265.749870596261</v>
+        <v>1265.546931190931</v>
       </c>
       <c r="X20">
-        <v>1646.413439253672</v>
+        <v>528.7854942269412</v>
       </c>
       <c r="Y20">
-        <v>0.9934269321873943</v>
+        <v>1.197237404988811</v>
       </c>
       <c r="Z20">
-        <v>1410.26521208802</v>
+        <v>1410.088249658834</v>
       </c>
       <c r="AA20">
-        <v>2180.473317499082</v>
+        <v>712.8943627926876</v>
       </c>
       <c r="AB20">
-        <v>0.8314880317421872</v>
+        <v>0.8718403306434289</v>
       </c>
       <c r="AC20">
-        <v>1370.713680696468</v>
+        <v>1370.654677164219</v>
       </c>
       <c r="AD20">
-        <v>327.5447717095616</v>
+        <v>67.15301638840373</v>
       </c>
       <c r="AE20">
-        <v>0.3393058662925294</v>
+        <v>0.3544095426778784</v>
+      </c>
+      <c r="AF20">
+        <v>1381.586902010486</v>
+      </c>
+      <c r="AG20">
+        <v>277.9955373173109</v>
+      </c>
+      <c r="AH20">
+        <v>14.1763819383146</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:34">
       <c r="A21" s="1">
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C21">
-        <v>102.9777594827942</v>
+        <v>103.0191955998012</v>
       </c>
       <c r="D21">
-        <v>1286.056143914295</v>
+        <v>1285.956363308928</v>
       </c>
       <c r="E21">
-        <v>6193.434332155342</v>
+        <v>7081.385004971848</v>
       </c>
       <c r="F21">
-        <v>1286.056193916795</v>
+        <v>1285.956413311428</v>
       </c>
       <c r="G21">
-        <v>11516.32511221137</v>
+        <v>13792.92769118485</v>
       </c>
       <c r="H21">
-        <v>0.7365539142136411</v>
+        <v>0.7649367902568475</v>
       </c>
       <c r="I21">
-        <v>8.063929049956968</v>
+        <v>11.69547081992733</v>
       </c>
       <c r="J21">
-        <v>0.4865237108152374</v>
+        <v>0.5089884390766628</v>
       </c>
       <c r="K21">
-        <v>1.473107828427282</v>
+        <v>1.529873580513695</v>
       </c>
       <c r="L21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M21">
-        <v>1389.03400340209</v>
+        <v>1388.975558908729</v>
       </c>
       <c r="N21">
-        <v>10280.97239748438</v>
+        <v>12155.77337058851</v>
       </c>
       <c r="O21">
-        <v>1389.03395339959</v>
+        <v>1388.975608911229</v>
       </c>
       <c r="P21">
-        <v>17126.28689687452</v>
+        <v>20585.95822422618</v>
       </c>
       <c r="Q21">
-        <v>0.6722101212806841</v>
+        <v>0.6796258902452902</v>
       </c>
       <c r="S21">
-        <v>9.370544878994155</v>
+        <v>13.45430180042643</v>
       </c>
       <c r="T21">
-        <v>0.4373620193254469</v>
+        <v>0.4563579840226657</v>
       </c>
       <c r="U21">
-        <v>1.344420242561368</v>
+        <v>1.35925178049058</v>
       </c>
       <c r="V21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W21">
-        <v>1265.842995337195</v>
+        <v>1265.749878312873</v>
       </c>
       <c r="X21">
-        <v>1330.732876355486</v>
+        <v>1646.326890994239</v>
       </c>
       <c r="Y21">
-        <v>0.9234993920455057</v>
+        <v>0.9933448086103405</v>
       </c>
       <c r="Z21">
-        <v>1410.32543609367</v>
+        <v>1410.265684743453</v>
       </c>
       <c r="AA21">
-        <v>1776.865379774378</v>
+        <v>2242.979221039282</v>
       </c>
       <c r="AB21">
-        <v>0.7940698511159414</v>
+        <v>0.833631467722281</v>
       </c>
       <c r="AC21">
-        <v>1370.735536357876</v>
+        <v>1370.709346271989</v>
       </c>
       <c r="AD21">
-        <v>279.2075659735946</v>
+        <v>239.7265158213338</v>
       </c>
       <c r="AE21">
-        <v>0.3358381772225094</v>
+        <v>0.3391199056341206</v>
+      </c>
+      <c r="AF21">
+        <v>1382.119088977215</v>
+      </c>
+      <c r="AG21">
+        <v>761.4034305262641</v>
+      </c>
+      <c r="AH21">
+        <v>13.5647962254391</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:34">
       <c r="A22" s="1">
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C22">
-        <v>102.9517299758602</v>
+        <v>102.9778720933273</v>
       </c>
       <c r="D22">
-        <v>1286.136938619289</v>
+        <v>1286.056143669417</v>
       </c>
       <c r="E22">
-        <v>4882.921838000918</v>
+        <v>6193.434356868668</v>
       </c>
       <c r="F22">
-        <v>1286.136988621789</v>
+        <v>1286.056193671917</v>
       </c>
       <c r="G22">
-        <v>8767.235086272933</v>
+        <v>11516.32514306246</v>
       </c>
       <c r="H22">
-        <v>0.7117310844527485</v>
+        <v>0.7365539073258756</v>
       </c>
       <c r="I22">
-        <v>7.962427752501213</v>
+        <v>8.063911998280423</v>
       </c>
       <c r="J22">
-        <v>0.4846303562235565</v>
+        <v>0.4865237316719924</v>
       </c>
       <c r="K22">
-        <v>1.423462168905497</v>
+        <v>1.473107814651751</v>
       </c>
       <c r="L22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M22">
-        <v>1389.088768600149</v>
+        <v>1389.034015762744</v>
       </c>
       <c r="N22">
-        <v>7895.790584796339</v>
+        <v>10285.11989728798</v>
       </c>
       <c r="O22">
-        <v>1389.088718597649</v>
+        <v>1389.034065765244</v>
       </c>
       <c r="P22">
-        <v>12720.55030754296</v>
+        <v>17061.5836779786</v>
       </c>
       <c r="Q22">
-        <v>0.6573666631512465</v>
+        <v>0.6723088197354977</v>
       </c>
       <c r="S22">
-        <v>7.165476931567271</v>
+        <v>11.40316343408969</v>
       </c>
       <c r="T22">
-        <v>0.4075745519007695</v>
+        <v>0.4294799715374555</v>
       </c>
       <c r="U22">
-        <v>1.314733326302493</v>
+        <v>1.344617639470995</v>
       </c>
       <c r="V22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W22">
-        <v>1265.913182388908</v>
+        <v>1265.842995383226</v>
       </c>
       <c r="X22">
-        <v>1017.925863136379</v>
+        <v>1330.732675242365</v>
       </c>
       <c r="Y22">
-        <v>0.9052157404514666</v>
+        <v>0.9234990868890975</v>
       </c>
       <c r="Z22">
-        <v>1410.376250167117</v>
+        <v>1410.32569439429</v>
       </c>
       <c r="AA22">
-        <v>1322.764691421511</v>
+        <v>1838.941443339333</v>
       </c>
       <c r="AB22">
-        <v>0.7787587478973595</v>
+        <v>0.7955402372553034</v>
       </c>
       <c r="AC22">
-        <v>1370.727506080769</v>
+        <v>1370.737064962382</v>
       </c>
       <c r="AD22">
-        <v>195.8339840424975</v>
+        <v>204.9155614373019</v>
       </c>
       <c r="AE22">
-        <v>0.3284658743364031</v>
+        <v>0.3357104179016078</v>
+      </c>
+      <c r="AF22">
+        <v>1382.119077005259</v>
+      </c>
+      <c r="AG22">
+        <v>544.2200089725548</v>
+      </c>
+      <c r="AH22">
+        <v>13.42841671620555</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:34">
       <c r="A23" s="1">
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C23">
-        <v>102.9201272843125</v>
+        <v>102.9512281011653</v>
       </c>
       <c r="D23">
-        <v>1286.225653618336</v>
+        <v>1286.136941609204</v>
       </c>
       <c r="E23">
-        <v>4277.161705120281</v>
+        <v>4882.922514682432</v>
       </c>
       <c r="F23">
-        <v>1286.225703620836</v>
+        <v>1286.136991611704</v>
       </c>
       <c r="G23">
-        <v>7359.674651348743</v>
+        <v>8767.236526183855</v>
       </c>
       <c r="H23">
-        <v>0.6899214952843491</v>
+        <v>0.71173089166152</v>
       </c>
       <c r="I23">
-        <v>6.926748209277338</v>
+        <v>7.962379195232214</v>
       </c>
       <c r="J23">
-        <v>0.4544737223663027</v>
+        <v>0.484631133469041</v>
       </c>
       <c r="K23">
-        <v>1.379842990568698</v>
+        <v>1.42346178332304</v>
       </c>
       <c r="L23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M23">
-        <v>1389.145880907648</v>
+        <v>1389.08836972037</v>
       </c>
       <c r="N23">
-        <v>6778.168399766881</v>
+        <v>7905.171866881334</v>
       </c>
       <c r="O23">
-        <v>1389.145830905148</v>
+        <v>1389.088219712869</v>
       </c>
       <c r="P23">
-        <v>10694.9553791159</v>
+        <v>12671.79619223748</v>
       </c>
       <c r="Q23">
-        <v>0.650718190921989</v>
+        <v>0.6561153539367683</v>
       </c>
       <c r="S23">
-        <v>6.322317125841809</v>
+        <v>10.31814768338209</v>
       </c>
       <c r="T23">
-        <v>0.378693651926219</v>
+        <v>0.4067764305762054</v>
       </c>
       <c r="U23">
-        <v>1.301436381843978</v>
+        <v>1.312230707873537</v>
       </c>
       <c r="V23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W23">
-        <v>1266.012026560361</v>
+        <v>1265.913181805897</v>
       </c>
       <c r="X23">
-        <v>831.0275815813417</v>
+        <v>1017.925031510029</v>
       </c>
       <c r="Y23">
-        <v>0.8186118424480687</v>
+        <v>0.90521933061365</v>
       </c>
       <c r="Z23">
-        <v>1410.420038643695</v>
+        <v>1410.376247040679</v>
       </c>
       <c r="AA23">
-        <v>1113.756223528605</v>
+        <v>1408.310005879851</v>
       </c>
       <c r="AB23">
-        <v>0.7474737112567265</v>
+        <v>0.7801932588410797</v>
       </c>
       <c r="AC23">
-        <v>1370.77142810503</v>
+        <v>1370.726860322883</v>
       </c>
       <c r="AD23">
-        <v>166.4838028356527</v>
+        <v>144.4283808053086</v>
       </c>
       <c r="AE23">
-        <v>0.3251508773415833</v>
+        <v>0.3283598978634956</v>
+      </c>
+      <c r="AF23">
+        <v>1389.819539216186</v>
+      </c>
+      <c r="AG23">
+        <v>117.5518282610824</v>
+      </c>
+      <c r="AH23">
+        <v>1.970159387182876</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:34">
       <c r="A24" s="1">
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C24">
-        <v>102.8854867209184</v>
+        <v>102.919051026762</v>
       </c>
       <c r="D24">
-        <v>1286.307951540531</v>
+        <v>1286.225653034865</v>
       </c>
       <c r="E24">
-        <v>3730.036984547919</v>
+        <v>4277.162111741199</v>
       </c>
       <c r="F24">
-        <v>1286.308001543031</v>
+        <v>1286.225703037365</v>
       </c>
       <c r="G24">
-        <v>6286.535850655989</v>
+        <v>7359.67510553917</v>
       </c>
       <c r="H24">
-        <v>0.6896631206915288</v>
+        <v>0.6899213636373237</v>
       </c>
       <c r="I24">
-        <v>5.957988302554774</v>
+        <v>6.92675718025102</v>
       </c>
       <c r="J24">
-        <v>0.3999690694606421</v>
+        <v>0.4544741432907445</v>
       </c>
       <c r="K24">
-        <v>1.379326241383058</v>
+        <v>1.379842727274647</v>
       </c>
       <c r="L24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M24">
-        <v>1389.193538266449</v>
+        <v>1389.145104081628</v>
       </c>
       <c r="N24">
-        <v>5897.922677114351</v>
+        <v>6781.108127561045</v>
       </c>
       <c r="O24">
-        <v>1389.193488263949</v>
+        <v>1389.144754064127</v>
       </c>
       <c r="P24">
-        <v>9078.622209932817</v>
+        <v>10483.58407322541</v>
       </c>
       <c r="Q24">
-        <v>0.6347943001506124</v>
+        <v>0.6481189062499462</v>
       </c>
       <c r="S24">
-        <v>5.941475301992425</v>
+        <v>8.41162700007138</v>
       </c>
       <c r="T24">
-        <v>0.3787672072448742</v>
+        <v>0.3528543811457042</v>
       </c>
       <c r="U24">
-        <v>1.269588600301225</v>
+        <v>1.296237812499892</v>
       </c>
       <c r="V24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W24">
-        <v>1266.04970179604</v>
+        <v>1266.012028974179</v>
       </c>
       <c r="X24">
-        <v>708.7266170706818</v>
+        <v>831.0298140526728</v>
       </c>
       <c r="Y24">
-        <v>0.7479371156317673</v>
+        <v>0.8185991099754172</v>
       </c>
       <c r="Z24">
-        <v>1410.465766809849</v>
+        <v>1410.420235965225</v>
       </c>
       <c r="AA24">
-        <v>944.0256766249922</v>
+        <v>1171.903694235983</v>
       </c>
       <c r="AB24">
-        <v>0.678920395512001</v>
+        <v>0.7478079659526882</v>
       </c>
       <c r="AC24">
-        <v>1370.785392494354</v>
+        <v>1370.785682917096</v>
       </c>
       <c r="AD24">
-        <v>139.7862394548568</v>
+        <v>139.7376494789321</v>
       </c>
       <c r="AE24">
-        <v>0.3171735685656548</v>
+        <v>0.3250663175070017</v>
+      </c>
+      <c r="AF24">
+        <v>1389.78558015269</v>
+      </c>
+      <c r="AG24">
+        <v>241.9966723425673</v>
+      </c>
+      <c r="AH24">
+        <v>1.950397905048703</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:34">
       <c r="A25" s="1">
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C25">
-        <v>102.8590920425645</v>
+        <v>102.8851114821828</v>
       </c>
       <c r="D25">
-        <v>1286.380006293332</v>
+        <v>1286.307952356643</v>
       </c>
       <c r="E25">
-        <v>3195.521434037692</v>
+        <v>3730.036675876071</v>
       </c>
       <c r="F25">
-        <v>1286.380056295832</v>
+        <v>1286.308002359143</v>
       </c>
       <c r="G25">
-        <v>5186.596009202736</v>
+        <v>6286.535018390293</v>
       </c>
       <c r="H25">
-        <v>0.6687518113403557</v>
+        <v>0.6896632270554484</v>
       </c>
       <c r="I25">
-        <v>6.138489029197251</v>
+        <v>5.95800773496336</v>
       </c>
       <c r="J25">
-        <v>0.3813098973172788</v>
+        <v>0.3999685287428566</v>
       </c>
       <c r="K25">
-        <v>1.337503622680711</v>
+        <v>1.379326454110897</v>
       </c>
       <c r="L25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M25">
-        <v>1389.239198340897</v>
+        <v>1389.193263848826</v>
       </c>
       <c r="N25">
-        <v>4929.191802149563</v>
+        <v>5902.493767433258</v>
       </c>
       <c r="O25">
-        <v>1389.239148338397</v>
+        <v>1389.193113841326</v>
       </c>
       <c r="P25">
-        <v>7402.292866098572</v>
+        <v>9057.418024363742</v>
       </c>
       <c r="Q25">
-        <v>0.6218421617889781</v>
+        <v>0.6340725782889254</v>
       </c>
       <c r="S25">
-        <v>5.396228049801347</v>
+        <v>7.484232959689152</v>
       </c>
       <c r="T25">
-        <v>0.3675695307706013</v>
+        <v>0.378198560930521</v>
       </c>
       <c r="U25">
-        <v>1.243684323577956</v>
+        <v>1.268145156577851</v>
       </c>
       <c r="V25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W25">
-        <v>1266.148667124799</v>
+        <v>1266.049704205592</v>
       </c>
       <c r="X25">
-        <v>584.600951578361</v>
+        <v>708.7319186278969</v>
       </c>
       <c r="Y25">
-        <v>0.7720993401726601</v>
+        <v>0.7479094686638177</v>
       </c>
       <c r="Z25">
-        <v>1410.505925101817</v>
+        <v>1410.4663124883</v>
       </c>
       <c r="AA25">
-        <v>757.8718575680169</v>
+        <v>981.9985143270674</v>
       </c>
       <c r="AB25">
-        <v>0.6650456142472337</v>
+        <v>0.6784451308514597</v>
       </c>
       <c r="AC25">
-        <v>1370.783044405585</v>
+        <v>1370.809193055841</v>
       </c>
       <c r="AD25">
-        <v>104.0335331210563</v>
+        <v>119.9866934498272</v>
       </c>
       <c r="AE25">
-        <v>0.3106807713082378</v>
+        <v>0.3170779008820681</v>
+      </c>
+      <c r="AF25">
+        <v>1390.119851155811</v>
+      </c>
+      <c r="AG25">
+        <v>55.72640233047765</v>
+      </c>
+      <c r="AH25">
+        <v>1.902467405292833</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:34">
       <c r="A26" s="1">
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C26">
-        <v>102.8338158453857</v>
+        <v>102.8590991927979</v>
       </c>
       <c r="D26">
-        <v>1286.448209381442</v>
+        <v>1286.380005975821</v>
       </c>
       <c r="E26">
-        <v>2444.588298549893</v>
+        <v>3195.521515535806</v>
       </c>
       <c r="F26">
-        <v>1286.448259383943</v>
+        <v>1286.380055978321</v>
       </c>
       <c r="G26">
-        <v>3858.038117403481</v>
+        <v>5186.596172914073</v>
       </c>
       <c r="H26">
-        <v>0.6592552609221147</v>
+        <v>0.6687517782128921</v>
       </c>
       <c r="I26">
-        <v>4.487930627675135</v>
+        <v>6.138484627973001</v>
       </c>
       <c r="J26">
-        <v>0.3435898277223514</v>
+        <v>0.3813100470067965</v>
       </c>
       <c r="K26">
-        <v>1.318510521844229</v>
+        <v>1.337503556425784</v>
       </c>
       <c r="L26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M26">
-        <v>1389.282125231828</v>
+        <v>1389.239205173619</v>
       </c>
       <c r="N26">
-        <v>3853.318076049098</v>
+        <v>4935.909727746068</v>
       </c>
       <c r="O26">
-        <v>1389.282075229328</v>
+        <v>1389.239155171119</v>
       </c>
       <c r="P26">
-        <v>5632.412666133469</v>
+        <v>7433.353628503502</v>
       </c>
       <c r="Q26">
-        <v>0.6106053109672093</v>
+        <v>0.6213676179597226</v>
       </c>
       <c r="S26">
-        <v>4.722163652505605</v>
+        <v>6.196685385902443</v>
       </c>
       <c r="T26">
-        <v>0.3434617724180289</v>
+        <v>0.3782781156540145</v>
       </c>
       <c r="U26">
-        <v>1.221210621934419</v>
+        <v>1.242735235919445</v>
       </c>
       <c r="V26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W26">
-        <v>1266.173729303071</v>
+        <v>1266.148666818761</v>
       </c>
       <c r="X26">
-        <v>409.4358723092514</v>
+        <v>584.6003374861918</v>
       </c>
       <c r="Y26">
-        <v>0.7778723355050303</v>
+        <v>0.7721033323347626</v>
       </c>
       <c r="Z26">
-        <v>1410.546932073475</v>
+        <v>1410.506348919504</v>
       </c>
       <c r="AA26">
-        <v>576.7937833608</v>
+        <v>796.4237762883058</v>
       </c>
       <c r="AB26">
-        <v>0.6678558384561352</v>
+        <v>0.6611704837879567</v>
       </c>
       <c r="AC26">
-        <v>1370.79478629867</v>
+        <v>1370.818943751671</v>
       </c>
       <c r="AD26">
-        <v>76.34155790860562</v>
+        <v>84.18816429483502</v>
       </c>
       <c r="AE26">
-        <v>0.3050286413555269</v>
+        <v>0.3104798841170232</v>
+      </c>
+      <c r="AF26">
+        <v>1390.212497860455</v>
+      </c>
+      <c r="AG26">
+        <v>8.619998780015772</v>
+      </c>
+      <c r="AH26">
+        <v>1.862883271054004</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:34">
       <c r="A27" s="1">
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C27">
-        <v>102.8110892174454</v>
+        <v>102.8330140513744</v>
       </c>
       <c r="D27">
-        <v>1286.490981178844</v>
+        <v>1286.448210372344</v>
       </c>
       <c r="E27">
-        <v>2228.792539688438</v>
+        <v>2444.588544919373</v>
       </c>
       <c r="F27">
-        <v>1286.491031181344</v>
+        <v>1286.448260374844</v>
       </c>
       <c r="G27">
-        <v>3464.02842708066</v>
+        <v>3858.038096691865</v>
       </c>
       <c r="H27">
-        <v>0.6522092191014404</v>
+        <v>0.6592551159314366</v>
       </c>
       <c r="I27">
-        <v>4.222827661824773</v>
+        <v>4.487961754645116</v>
       </c>
       <c r="J27">
-        <v>0.3309559221069815</v>
+        <v>0.3435901527710629</v>
       </c>
       <c r="K27">
-        <v>1.304418438202881</v>
+        <v>1.318510231862873</v>
       </c>
       <c r="L27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M27">
-        <v>1389.30217040129</v>
+        <v>1389.281524438719</v>
       </c>
       <c r="N27">
-        <v>3451.733759487993</v>
+        <v>3852.176651715336</v>
       </c>
       <c r="O27">
-        <v>1389.30212039879</v>
+        <v>1389.281274426218</v>
       </c>
       <c r="P27">
-        <v>4984.665941607343</v>
+        <v>5570.181722202121</v>
       </c>
       <c r="Q27">
-        <v>0.6104890436481539</v>
+        <v>0.6098568113547875</v>
       </c>
       <c r="S27">
-        <v>5.196066635318773</v>
+        <v>5.004583049391286</v>
       </c>
       <c r="T27">
-        <v>0.3103324780151462</v>
+        <v>0.3264143185175707</v>
       </c>
       <c r="U27">
-        <v>1.220978087296308</v>
+        <v>1.219713622709575</v>
       </c>
       <c r="V27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W27">
-        <v>1266.233080319655</v>
+        <v>1266.173732546312</v>
       </c>
       <c r="X27">
-        <v>361.2219396908037</v>
+        <v>409.4393138380261</v>
       </c>
       <c r="Y27">
-        <v>0.7685277702898632</v>
+        <v>0.7778550011986873</v>
       </c>
       <c r="Z27">
-        <v>1410.568766673513</v>
+        <v>1410.547424856317</v>
       </c>
       <c r="AA27">
-        <v>507.7837340013061</v>
+        <v>590.5277250104713</v>
       </c>
       <c r="AB27">
-        <v>0.6155910820992763</v>
+        <v>0.6660375244125994</v>
       </c>
       <c r="AC27">
-        <v>1369.72634991542</v>
+        <v>1370.844216115541</v>
       </c>
       <c r="AD27">
-        <v>18.22104370593397</v>
+        <v>59.0058170113154</v>
       </c>
       <c r="AE27">
-        <v>0.3049853878440121</v>
+        <v>0.3049066328635975</v>
+      </c>
+      <c r="AF27">
+        <v>1390.19529625062</v>
+      </c>
+      <c r="AG27">
+        <v>68.40439912649229</v>
+      </c>
+      <c r="AH27">
+        <v>1.829439797183273</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:34">
       <c r="A28" s="1">
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C28">
-        <v>102.8075039445264</v>
+        <v>102.8106755392253</v>
       </c>
       <c r="D28">
-        <v>1286.514200776782</v>
+        <v>1286.490998295702</v>
       </c>
       <c r="E28">
-        <v>2008.914152700353</v>
+        <v>2228.792232682761</v>
       </c>
       <c r="F28">
-        <v>1286.514250779283</v>
+        <v>1286.491048298202</v>
       </c>
       <c r="G28">
-        <v>3122.915378257817</v>
+        <v>3464.030430033019</v>
       </c>
       <c r="H28">
-        <v>0.6526553224275554</v>
+        <v>0.6522095114673016</v>
       </c>
       <c r="I28">
-        <v>4.204856798142449</v>
+        <v>4.22308817657717</v>
       </c>
       <c r="J28">
-        <v>0.3296167102137692</v>
+        <v>0.3309566932358205</v>
       </c>
       <c r="K28">
-        <v>1.305310644855111</v>
+        <v>1.304419022934603</v>
       </c>
       <c r="L28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M28">
-        <v>1389.321804726309</v>
+        <v>1389.301873844928</v>
       </c>
       <c r="N28">
-        <v>3155.938035646115</v>
+        <v>3456.481701868185</v>
       </c>
       <c r="O28">
-        <v>1389.321754723809</v>
+        <v>1389.301723837427</v>
       </c>
       <c r="P28">
-        <v>4512.979450633281</v>
+        <v>4977.590376156973</v>
       </c>
       <c r="Q28">
-        <v>0.6017178706961606</v>
+        <v>0.60949525787934</v>
       </c>
       <c r="S28">
-        <v>4.429979598086735</v>
+        <v>4.857893653807684</v>
       </c>
       <c r="T28">
-        <v>0.3233058552558019</v>
+        <v>0.3129041481960479</v>
       </c>
       <c r="U28">
-        <v>1.203435741392321</v>
+        <v>1.21899051575868</v>
       </c>
       <c r="V28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W28">
-        <v>1266.227156007076</v>
+        <v>1266.233089314268</v>
       </c>
       <c r="X28">
-        <v>333.6920204770568</v>
+        <v>361.2297732389313</v>
       </c>
       <c r="Y28">
-        <v>0.748528541826977</v>
+        <v>0.7684774641865586</v>
       </c>
       <c r="Z28">
-        <v>1410.567459936427</v>
+        <v>1410.569606232373</v>
       </c>
       <c r="AA28">
-        <v>459.1396439693752</v>
+        <v>539.9623797824365</v>
       </c>
       <c r="AB28">
-        <v>0.6469907778817845</v>
+        <v>0.606705497974409</v>
       </c>
       <c r="AC28">
-        <v>1370.782119851041</v>
+        <v>1370.819294976424</v>
       </c>
       <c r="AD28">
-        <v>66.1382690430605</v>
+        <v>73.0783304474283</v>
       </c>
       <c r="AE28">
-        <v>0.3005433826960575</v>
+        <v>0.3045498351419623</v>
+      </c>
+      <c r="AF28">
+        <v>1390.205939062379</v>
+      </c>
+      <c r="AG28">
+        <v>37.03408228300173</v>
+      </c>
+      <c r="AH28">
+        <v>1.8272990621135</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:34">
       <c r="A29" s="1">
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C29">
-        <v>102.8040319114118</v>
+        <v>102.8074540595214</v>
       </c>
       <c r="D29">
-        <v>1286.536065119207</v>
+        <v>1286.514203679813</v>
       </c>
       <c r="E29">
-        <v>1867.856382204665</v>
+        <v>2008.914204525501</v>
       </c>
       <c r="F29">
-        <v>1286.536115121707</v>
+        <v>1286.514253682313</v>
       </c>
       <c r="G29">
-        <v>2833.767428115432</v>
+        <v>3122.915372749056</v>
       </c>
       <c r="H29">
-        <v>0.6438414418207397</v>
+        <v>0.6526553093024455</v>
       </c>
       <c r="I29">
-        <v>4.781712560499805</v>
+        <v>4.204922172261536</v>
       </c>
       <c r="J29">
-        <v>0.2996295387127584</v>
+        <v>0.3296167345397992</v>
       </c>
       <c r="K29">
-        <v>1.287682883641479</v>
+        <v>1.305310618604891</v>
       </c>
       <c r="L29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M29">
-        <v>1389.340197035619</v>
+        <v>1389.321757744335</v>
       </c>
       <c r="N29">
-        <v>2911.813173124914</v>
+        <v>3159.601421864544</v>
       </c>
       <c r="O29">
-        <v>1389.340147033119</v>
+        <v>1389.321707741835</v>
       </c>
       <c r="P29">
-        <v>4093.336226548224</v>
+        <v>4525.805911131346</v>
       </c>
       <c r="Q29">
-        <v>0.5958447846143755</v>
+        <v>0.6011623253419275</v>
       </c>
       <c r="S29">
-        <v>3.650170321357557</v>
+        <v>4.667441735679418</v>
       </c>
       <c r="T29">
-        <v>0.3029849297444478</v>
+        <v>0.3313875885993361</v>
       </c>
       <c r="U29">
-        <v>1.191689569228751</v>
+        <v>1.202324650683855</v>
       </c>
       <c r="V29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W29">
-        <v>1266.272881965968</v>
+        <v>1266.227170452153</v>
       </c>
       <c r="X29">
-        <v>314.2119957699144</v>
+        <v>333.7030297286241</v>
       </c>
       <c r="Y29">
-        <v>0.6964657444726008</v>
+        <v>0.7484521116453239</v>
       </c>
       <c r="Z29">
-        <v>1410.586537276874</v>
+        <v>1410.567799178647</v>
       </c>
       <c r="AA29">
-        <v>415.9351103070103</v>
+        <v>476.6873449056368</v>
       </c>
       <c r="AB29">
-        <v>0.6313792902480254</v>
+        <v>0.6421950224917871</v>
       </c>
       <c r="AC29">
-        <v>1371.162969525947</v>
+        <v>1370.793263455517</v>
       </c>
       <c r="AD29">
-        <v>53.60085927999295</v>
+        <v>61.4746639573999</v>
       </c>
       <c r="AE29">
-        <v>0.2976151037944949</v>
+        <v>0.3002645152523816</v>
+      </c>
+      <c r="AF29">
+        <v>1390.48969818163</v>
+      </c>
+      <c r="AG29">
+        <v>5.35667029591713</v>
+      </c>
+      <c r="AH29">
+        <v>1.801587396970348</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:34">
       <c r="A30" s="1">
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C30">
-        <v>102.7771984309838</v>
+        <v>102.8039526065052</v>
       </c>
       <c r="D30">
-        <v>1286.565650661038</v>
+        <v>1286.536097814129</v>
       </c>
       <c r="E30">
-        <v>1583.914898517135</v>
+        <v>1867.858413859518</v>
       </c>
       <c r="F30">
-        <v>1286.565700663538</v>
+        <v>1286.536147816629</v>
       </c>
       <c r="G30">
-        <v>2353.192301141593</v>
+        <v>2833.776069082804</v>
       </c>
       <c r="H30">
-        <v>0.6309318462499222</v>
+        <v>0.6438403563183082</v>
       </c>
       <c r="I30">
-        <v>3.40890921546771</v>
+        <v>4.78210932414124</v>
       </c>
       <c r="J30">
-        <v>0.297688179092971</v>
+        <v>0.2996397599779582</v>
       </c>
       <c r="K30">
-        <v>1.261863692499844</v>
+        <v>1.287680712636616</v>
       </c>
       <c r="L30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M30">
-        <v>1389.342949097022</v>
+        <v>1389.340150425634</v>
       </c>
       <c r="N30">
-        <v>2494.72909091248</v>
+        <v>2912.44048892475</v>
       </c>
       <c r="O30">
-        <v>1389.342899094522</v>
+        <v>1389.340100423134</v>
       </c>
       <c r="P30">
-        <v>3472.020318240124</v>
+        <v>4091.984321131485</v>
       </c>
       <c r="Q30">
-        <v>0.5870947450132744</v>
+        <v>0.59566462117568</v>
       </c>
       <c r="S30">
-        <v>4.062168166848709</v>
+        <v>3.711916810701452</v>
       </c>
       <c r="T30">
-        <v>0.3163200629147129</v>
+        <v>0.3033214991574682</v>
       </c>
       <c r="U30">
-        <v>1.174189490026549</v>
+        <v>1.19132924235136</v>
       </c>
       <c r="V30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W30">
-        <v>1266.288328431901</v>
+        <v>1266.272881853919</v>
       </c>
       <c r="X30">
-        <v>260.4103553883812</v>
+        <v>314.2117085119229</v>
       </c>
       <c r="Y30">
-        <v>0.683449397976062</v>
+        <v>0.6964666436946143</v>
       </c>
       <c r="Z30">
-        <v>1410.61720066604</v>
+        <v>1410.586483285438</v>
       </c>
       <c r="AA30">
-        <v>356.7239957002217</v>
+        <v>420.088558655803</v>
       </c>
       <c r="AB30">
-        <v>0.6222077956460655</v>
+        <v>0.6301249900284742</v>
       </c>
       <c r="AC30">
-        <v>1371.181254280111</v>
+        <v>1371.160730198868</v>
       </c>
       <c r="AD30">
-        <v>43.97108933341576</v>
+        <v>52.83367705558074</v>
       </c>
       <c r="AE30">
-        <v>0.2932137035071767</v>
+        <v>0.2975395679732885</v>
+      </c>
+      <c r="AF30">
+        <v>1389.978008724147</v>
+      </c>
+      <c r="AG30">
+        <v>5.026667591335293</v>
+      </c>
+      <c r="AH30">
+        <v>1.785237407839778</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:34">
       <c r="A31" s="1">
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C31">
-        <v>102.7813879471662</v>
+        <v>102.7771549213526</v>
       </c>
       <c r="D31">
-        <v>1286.584352078927</v>
+        <v>1286.565614092087</v>
       </c>
       <c r="E31">
-        <v>1310.046828608404</v>
+        <v>1583.912281281004</v>
       </c>
       <c r="F31">
-        <v>1286.584402081427</v>
+        <v>1286.565664094587</v>
       </c>
       <c r="G31">
-        <v>1945.263849629274</v>
+        <v>2353.181674154757</v>
       </c>
       <c r="H31">
-        <v>0.6381558033296094</v>
+        <v>0.6309334075551256</v>
       </c>
       <c r="I31">
-        <v>2.870312190702393</v>
+        <v>3.409036472528213</v>
       </c>
       <c r="J31">
-        <v>0.2639654763261385</v>
+        <v>0.2976732085389794</v>
       </c>
       <c r="K31">
-        <v>1.276311606659219</v>
+        <v>1.261866815110251</v>
       </c>
       <c r="L31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M31">
-        <v>1389.365840031094</v>
+        <v>1389.34286901844</v>
       </c>
       <c r="N31">
-        <v>2062.334556296285</v>
+        <v>2496.304250107215</v>
       </c>
       <c r="O31">
-        <v>1389.365790028593</v>
+        <v>1389.34281901594</v>
       </c>
       <c r="P31">
-        <v>2832.395327341664</v>
+        <v>3475.658623432715</v>
       </c>
       <c r="Q31">
-        <v>0.5910012832769235</v>
+        <v>0.5867404667393311</v>
       </c>
       <c r="S31">
-        <v>3.059275416795949</v>
+        <v>4.143861069791602</v>
       </c>
       <c r="T31">
-        <v>0.2602586776726156</v>
+        <v>0.3200072061184527</v>
       </c>
       <c r="U31">
-        <v>1.182002566553847</v>
+        <v>1.173480933478662</v>
       </c>
       <c r="V31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W31">
-        <v>1266.315192726646</v>
+        <v>1266.288328367928</v>
       </c>
       <c r="X31">
-        <v>191.0196532078688</v>
+        <v>260.4105054434503</v>
       </c>
       <c r="Y31">
-        <v>0.7148681115661863</v>
+        <v>0.6834500396475989</v>
       </c>
       <c r="Z31">
-        <v>1410.613950953094</v>
+        <v>1410.617125967737</v>
       </c>
       <c r="AA31">
-        <v>268.0763099178611</v>
+        <v>364.085279018369</v>
       </c>
       <c r="AB31">
-        <v>0.6184440183899719</v>
+        <v>0.6192954469362103</v>
       </c>
       <c r="AC31">
-        <v>1371.172615708342</v>
+        <v>1371.167598403236</v>
       </c>
       <c r="AD31">
-        <v>37.01143129613941</v>
+        <v>40.98313942511325</v>
       </c>
       <c r="AE31">
-        <v>0.2952012310146522</v>
+        <v>0.2930373748562188</v>
+      </c>
+      <c r="AF31">
+        <v>1390.380486262239</v>
+      </c>
+      <c r="AG31">
+        <v>3.946666262027783</v>
+      </c>
+      <c r="AH31">
+        <v>1.758275875049561</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:34">
       <c r="A32" s="1">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C32">
-        <v>102.771354485265</v>
+        <v>102.7805346452121</v>
       </c>
       <c r="D32">
-        <v>1286.598053797721</v>
+        <v>1286.584352825957</v>
       </c>
       <c r="E32">
-        <v>1088.256617469049</v>
+        <v>1310.050215853997</v>
       </c>
       <c r="F32">
-        <v>1286.598103800221</v>
+        <v>1286.584402828457</v>
       </c>
       <c r="G32">
-        <v>1595.735134705747</v>
+        <v>1945.273342552923</v>
       </c>
       <c r="H32">
-        <v>0.6327017920386042</v>
+        <v>0.638152155805543</v>
       </c>
       <c r="I32">
-        <v>2.770988230852673</v>
+        <v>2.870364897494821</v>
       </c>
       <c r="J32">
-        <v>0.252602537008485</v>
+        <v>0.2639881935208652</v>
       </c>
       <c r="K32">
-        <v>1.265403584077208</v>
+        <v>1.276304311611086</v>
       </c>
       <c r="L32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M32">
-        <v>1389.369508287986</v>
+        <v>1389.36518748617</v>
       </c>
       <c r="N32">
-        <v>1731.163450550091</v>
+        <v>2064.500912142702</v>
       </c>
       <c r="O32">
-        <v>1389.369458285486</v>
+        <v>1389.364937473669</v>
       </c>
       <c r="P32">
-        <v>2381.736286683175</v>
+        <v>2801.007463963373</v>
       </c>
       <c r="Q32">
-        <v>0.596015743775793</v>
+        <v>0.5893830739149604</v>
       </c>
       <c r="S32">
-        <v>2.791249296877861</v>
+        <v>2.89242556272526</v>
       </c>
       <c r="T32">
-        <v>0.2411697897755906</v>
+        <v>0.2477880222093624</v>
       </c>
       <c r="U32">
-        <v>1.192031487551586</v>
+        <v>1.178766147829921</v>
       </c>
       <c r="V32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W32">
-        <v>1266.305772267469</v>
+        <v>1266.315188939658</v>
       </c>
       <c r="X32">
-        <v>159.1139128954202</v>
+        <v>191.0164000710911</v>
       </c>
       <c r="Y32">
-        <v>0.6917744731424587</v>
+        <v>0.7148878138603743</v>
       </c>
       <c r="Z32">
-        <v>1410.597241348</v>
+        <v>1410.613457841766</v>
       </c>
       <c r="AA32">
-        <v>229.2143768369037</v>
+        <v>293.0949451680685</v>
       </c>
       <c r="AB32">
-        <v>0.6093492876262875</v>
+        <v>0.6045588776895386</v>
       </c>
       <c r="AC32">
-        <v>1371.193576253521</v>
+        <v>1370.823607890383</v>
       </c>
       <c r="AD32">
-        <v>34.95354610374938</v>
+        <v>39.65687671494177</v>
       </c>
       <c r="AE32">
-        <v>0.2976941071922947</v>
+        <v>0.2944793646990267</v>
+      </c>
+      <c r="AF32">
+        <v>1390.135729191089</v>
+      </c>
+      <c r="AG32">
+        <v>50.73887182449522</v>
+      </c>
+      <c r="AH32">
+        <v>1.766876424315585</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:34">
       <c r="A33" s="1">
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C33">
-        <v>102.7690053065423</v>
+        <v>102.7713412065482</v>
       </c>
       <c r="D33">
-        <v>1286.609901163167</v>
+        <v>1286.598046778287</v>
       </c>
       <c r="E33">
-        <v>1029.254549679472</v>
+        <v>1088.256538252867</v>
       </c>
       <c r="F33">
-        <v>1286.609951165668</v>
+        <v>1286.598096780787</v>
       </c>
       <c r="G33">
-        <v>1500.313799500764</v>
+        <v>1595.734126571619</v>
       </c>
       <c r="H33">
-        <v>0.6237613931797109</v>
+        <v>0.6327017709503497</v>
       </c>
       <c r="I33">
-        <v>2.522790411698803</v>
+        <v>2.771010839254505</v>
       </c>
       <c r="J33">
-        <v>0.2762470051906702</v>
+        <v>0.2526010498836068</v>
       </c>
       <c r="K33">
-        <v>1.247522786359422</v>
+        <v>1.265403541900699</v>
       </c>
       <c r="L33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M33">
-        <v>1389.37890646971</v>
+        <v>1389.369487989835</v>
       </c>
       <c r="N33">
-        <v>1590.057836208822</v>
+        <v>1733.793783626194</v>
       </c>
       <c r="O33">
-        <v>1389.37895647221</v>
+        <v>1389.369437987335</v>
       </c>
       <c r="P33">
-        <v>2173.014262660829</v>
+        <v>2392.739475623455</v>
       </c>
       <c r="Q33">
-        <v>0.5910026568398647</v>
+        <v>0.5953419197786604</v>
       </c>
       <c r="S33">
-        <v>2.518308663699042</v>
+        <v>2.832078939604849</v>
       </c>
       <c r="T33">
-        <v>0.2461475351533907</v>
+        <v>0.2534046998056544</v>
       </c>
       <c r="U33">
-        <v>1.182005313679729</v>
+        <v>1.190683839557321</v>
       </c>
       <c r="V33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W33">
-        <v>1266.332772710224</v>
+        <v>1266.305772161574</v>
       </c>
       <c r="X33">
-        <v>157.9681052174095</v>
+        <v>159.1159350407097</v>
       </c>
       <c r="Y33">
-        <v>0.6127680337824004</v>
+        <v>0.691769019102132</v>
       </c>
       <c r="Z33">
-        <v>1410.62333957808</v>
+        <v>1410.596971456873</v>
       </c>
       <c r="AA33">
-        <v>192.3681783160284</v>
+        <v>239.6120461331453</v>
       </c>
       <c r="AB33">
-        <v>0.6388171059759475</v>
+        <v>0.6034397199771269</v>
       </c>
       <c r="AC33">
-        <v>1370.815893004649</v>
+        <v>1370.838551666827</v>
       </c>
       <c r="AD33">
-        <v>27.99055711271873</v>
+        <v>33.24626346222346</v>
       </c>
       <c r="AE33">
-        <v>0.295235138826219</v>
+        <v>0.2973296907058455</v>
+      </c>
+      <c r="AF33">
+        <v>1390.378539159779</v>
+      </c>
+      <c r="AG33">
+        <v>2.927999268000164</v>
+      </c>
+      <c r="AH33">
+        <v>11.83687684254998</v>
       </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:34">
       <c r="A34" s="1">
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C34">
-        <v>102.7603007143803</v>
+        <v>102.768920631629</v>
       </c>
       <c r="D34">
-        <v>1286.618257532714</v>
+        <v>1286.609900207412</v>
       </c>
       <c r="E34">
-        <v>869.1145629129204</v>
+        <v>1029.254318875583</v>
       </c>
       <c r="F34">
-        <v>1286.618307535214</v>
+        <v>1286.609950209912</v>
       </c>
       <c r="G34">
-        <v>1250.242995652173</v>
+        <v>1500.313327263367</v>
       </c>
       <c r="H34">
-        <v>0.6332230987888853</v>
+        <v>0.6237616531740494</v>
       </c>
       <c r="I34">
-        <v>2.456907951536023</v>
+        <v>2.522790576415903</v>
       </c>
       <c r="J34">
-        <v>0.1951168972700147</v>
+        <v>0.2762455713531488</v>
       </c>
       <c r="K34">
-        <v>1.266446197577771</v>
+        <v>1.247523306348099</v>
       </c>
       <c r="L34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M34">
-        <v>1389.378658252094</v>
+        <v>1389.378920844041</v>
       </c>
       <c r="N34">
-        <v>1387.397975698949</v>
+        <v>1591.937755554214</v>
       </c>
       <c r="O34">
-        <v>1389.378608249594</v>
+        <v>1389.378870841541</v>
       </c>
       <c r="P34">
-        <v>1880.244517855218</v>
+        <v>2179.14259003314</v>
       </c>
       <c r="Q34">
-        <v>0.5846950630966414</v>
+        <v>0.5904083205417551</v>
       </c>
       <c r="S34">
-        <v>2.283209302925246</v>
+        <v>2.510312905566934</v>
       </c>
       <c r="T34">
-        <v>0.2528779191228955</v>
+        <v>0.2545370189272815</v>
       </c>
       <c r="U34">
-        <v>1.169390126193283</v>
+        <v>1.18081664108351</v>
       </c>
       <c r="V34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W34">
-        <v>1266.318666400476</v>
+        <v>1266.332772576304</v>
       </c>
       <c r="X34">
-        <v>122.4809978310145</v>
+        <v>157.9680906150324</v>
       </c>
       <c r="Y34">
-        <v>0.6949021055582221</v>
+        <v>0.6127682915586752</v>
       </c>
       <c r="Z34">
-        <v>1410.618828158267</v>
+        <v>1410.623121562817</v>
       </c>
       <c r="AA34">
-        <v>170.7078030237925</v>
+        <v>200.7474923915191</v>
       </c>
       <c r="AB34">
-        <v>0.6192840050628398</v>
+        <v>0.6342037441135279</v>
       </c>
       <c r="AC34">
-        <v>1371.19299997035</v>
+        <v>1371.196176865055</v>
       </c>
       <c r="AD34">
-        <v>26.23408133876216</v>
+        <v>28.73758989782264</v>
       </c>
       <c r="AE34">
-        <v>0.2920530324144043</v>
+        <v>0.2949201136066733</v>
+      </c>
+      <c r="AF34">
+        <v>1390.439606556916</v>
+      </c>
+      <c r="AG34">
+        <v>2.484129548968456</v>
+      </c>
+      <c r="AH34">
+        <v>1.769544521088274</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:34">
       <c r="A35" s="1">
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C35">
-        <v>102.7539090953737</v>
+        <v>102.7591567312393</v>
       </c>
       <c r="D35">
-        <v>1286.643881035681</v>
+        <v>1286.618255419427</v>
       </c>
       <c r="E35">
-        <v>644.8889445499187</v>
+        <v>869.1145325597366</v>
       </c>
       <c r="F35">
-        <v>1286.643931038181</v>
+        <v>1286.618305421927</v>
       </c>
       <c r="G35">
-        <v>903.9231600748495</v>
+        <v>1250.242750661209</v>
       </c>
       <c r="H35">
-        <v>0.6164964765488484</v>
+        <v>0.6332231179342097</v>
       </c>
       <c r="I35">
-        <v>2.079446683855339</v>
+        <v>2.456912130475217</v>
       </c>
       <c r="J35">
-        <v>0.1974303432814151</v>
+        <v>0.1951163412968929</v>
       </c>
       <c r="K35">
-        <v>1.232992953097697</v>
+        <v>1.266446235868419</v>
       </c>
       <c r="L35" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M35">
-        <v>1389.397890136055</v>
+        <v>1389.377912175667</v>
       </c>
       <c r="N35">
-        <v>1012.261940567408</v>
+        <v>1386.887650916441</v>
       </c>
       <c r="O35">
-        <v>1389.397840133555</v>
+        <v>1389.377462153166</v>
       </c>
       <c r="P35">
-        <v>1352.450475948723</v>
+        <v>1836.849393633055</v>
       </c>
       <c r="Q35">
-        <v>0.586436963340958</v>
+        <v>0.5830985057719927</v>
       </c>
       <c r="S35">
-        <v>2.106507142607232</v>
+        <v>2.259547848471676</v>
       </c>
       <c r="T35">
-        <v>0.2034227237052778</v>
+        <v>0.2173250849403056</v>
       </c>
       <c r="U35">
-        <v>1.172873926681916</v>
+        <v>1.166197011543985</v>
       </c>
       <c r="V35" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W35">
-        <v>1266.358352471694</v>
+        <v>1266.318666400096</v>
       </c>
       <c r="X35">
-        <v>76.75589726916873</v>
+        <v>122.4810039223934</v>
       </c>
       <c r="Y35">
-        <v>0.6941470549936946</v>
+        <v>0.6949020374787976</v>
       </c>
       <c r="Z35">
-        <v>1410.613724066265</v>
+        <v>1410.617729750225</v>
       </c>
       <c r="AA35">
-        <v>130.497972685586</v>
+        <v>185.7684982865595</v>
       </c>
       <c r="AB35">
-        <v>0.6042797213877116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31">
-      <c r="A36" s="1">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36">
-        <v>102.758897544719</v>
-      </c>
-      <c r="D36">
-        <v>1286.652539953465</v>
-      </c>
-      <c r="E36">
-        <v>516.7398857020447</v>
-      </c>
-      <c r="F36">
-        <v>1286.652589955965</v>
-      </c>
-      <c r="G36">
-        <v>708.9238504058497</v>
-      </c>
-      <c r="H36">
-        <v>0.6019901339660406</v>
-      </c>
-      <c r="I36">
-        <v>1.977679614020306</v>
-      </c>
-      <c r="J36">
-        <v>0.2043062100057697</v>
-      </c>
-      <c r="K36">
-        <v>1.203980267932081</v>
-      </c>
-      <c r="L36" t="s">
-        <v>73</v>
-      </c>
-      <c r="M36">
-        <v>1389.411537503184</v>
-      </c>
-      <c r="N36">
-        <v>791.7158397055947</v>
-      </c>
-      <c r="O36">
-        <v>1389.411487500684</v>
-      </c>
-      <c r="P36">
-        <v>1046.570016410767</v>
-      </c>
-      <c r="Q36">
-        <v>0.587550062841389</v>
-      </c>
-      <c r="S36">
-        <v>1.873244687270213</v>
-      </c>
-      <c r="T36">
-        <v>0.1667788947662797</v>
-      </c>
-      <c r="U36">
-        <v>1.175100125682778</v>
-      </c>
-      <c r="V36" t="s">
-        <v>73</v>
-      </c>
-      <c r="W36">
-        <v>1266.370895078406</v>
-      </c>
-      <c r="X36">
-        <v>59.80110225135093</v>
-      </c>
-      <c r="Y36">
-        <v>0.6480731510910379</v>
-      </c>
-      <c r="Z36">
-        <v>1410.642555440015</v>
-      </c>
-      <c r="AA36">
-        <v>95.84212254504136</v>
-      </c>
-      <c r="AB36">
-        <v>0.5882239754158175</v>
-      </c>
-      <c r="AC36">
-        <v>1371.209180767353</v>
-      </c>
-      <c r="AD36">
-        <v>17.69616686433925</v>
-      </c>
-      <c r="AE36">
-        <v>0.2934890726427765</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31">
-      <c r="A37" s="1">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37">
-        <v>102.7470021094227</v>
-      </c>
-      <c r="D37">
-        <v>1286.664023709264</v>
-      </c>
-      <c r="E37">
-        <v>369.8380629569173</v>
-      </c>
-      <c r="F37">
-        <v>1286.664023709264</v>
-      </c>
-      <c r="G37">
-        <v>491.8230261671195</v>
-      </c>
-      <c r="H37">
-        <v>0.6112809685653848</v>
-      </c>
-      <c r="I37">
-        <v>1.970989409887368</v>
-      </c>
-      <c r="J37">
-        <v>0.06638535155006831</v>
-      </c>
-      <c r="K37">
-        <v>1.22256193713077</v>
-      </c>
-      <c r="L37" t="s">
-        <v>73</v>
-      </c>
-      <c r="M37">
-        <v>1389.411075821187</v>
-      </c>
-      <c r="N37">
-        <v>579.3608148988537</v>
-      </c>
-      <c r="O37">
-        <v>1389.411025818687</v>
-      </c>
-      <c r="P37">
-        <v>763.9686354721808</v>
-      </c>
-      <c r="Q37">
-        <v>0.5816250205989264</v>
-      </c>
-      <c r="S37">
-        <v>1.925759599846889</v>
-      </c>
-      <c r="T37">
-        <v>0.1891939371367906</v>
-      </c>
-      <c r="U37">
-        <v>1.163250041197853</v>
-      </c>
-      <c r="V37" t="s">
-        <v>73</v>
-      </c>
-      <c r="W37">
-        <v>1266.349327991556</v>
-      </c>
-      <c r="X37">
-        <v>32.75052748262105</v>
-      </c>
-      <c r="Y37">
-        <v>0.5765000593824008</v>
-      </c>
-      <c r="Z37">
-        <v>1410.635182498057</v>
-      </c>
-      <c r="AA37">
-        <v>72.99060177586486</v>
-      </c>
-      <c r="AB37">
-        <v>0.5855542546116365</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31">
-      <c r="A38" s="1">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38">
-        <v>102.7260993368432</v>
-      </c>
-      <c r="D38">
-        <v>1286.691021976886</v>
-      </c>
-      <c r="E38">
-        <v>254.1827700593303</v>
-      </c>
-      <c r="F38">
-        <v>1286.691021976886</v>
-      </c>
-      <c r="G38">
-        <v>328.4633393189901</v>
-      </c>
-      <c r="H38">
-        <v>0.6068480416262925</v>
-      </c>
-      <c r="I38">
-        <v>1.962849028303957</v>
-      </c>
-      <c r="J38">
-        <v>0.000704490293250426</v>
-      </c>
-      <c r="K38">
-        <v>1.213696083252585</v>
-      </c>
-      <c r="L38" t="s">
-        <v>73</v>
-      </c>
-      <c r="M38">
-        <v>1389.41717131623</v>
-      </c>
-      <c r="N38">
-        <v>403.1331040072373</v>
-      </c>
-      <c r="O38">
-        <v>1389.417121313729</v>
-      </c>
-      <c r="P38">
-        <v>520.2692911297912</v>
-      </c>
-      <c r="Q38">
-        <v>0.5801466331330192</v>
-      </c>
-      <c r="S38">
-        <v>1.703450708405</v>
-      </c>
-      <c r="T38">
-        <v>0.1333485078806765</v>
-      </c>
-      <c r="U38">
-        <v>1.160293266266038</v>
-      </c>
-      <c r="V38" t="s">
-        <v>73</v>
-      </c>
-      <c r="W38">
-        <v>1266.36201929993</v>
-      </c>
-      <c r="X38">
-        <v>27.17553092235304</v>
-      </c>
-      <c r="Y38">
-        <v>0.64274010344903</v>
-      </c>
-      <c r="Z38">
-        <v>1410.681972010588</v>
-      </c>
-      <c r="AA38">
-        <v>48.5627408894663</v>
-      </c>
-      <c r="AB38">
-        <v>0.5945581659999187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31">
-      <c r="A39" s="1">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39">
-        <v>102.7402451923251</v>
-      </c>
-      <c r="D39">
-        <v>1286.697240683941</v>
-      </c>
-      <c r="E39">
-        <v>180.3320621001235</v>
-      </c>
-      <c r="F39">
-        <v>1286.697240683941</v>
-      </c>
-      <c r="G39">
-        <v>237.6938193560382</v>
-      </c>
-      <c r="H39">
-        <v>0.6156564190685897</v>
-      </c>
-      <c r="I39">
-        <v>2.542691889421866</v>
-      </c>
-      <c r="J39">
-        <v>0.01741161501309907</v>
-      </c>
-      <c r="K39">
-        <v>1.231312838137179</v>
-      </c>
-      <c r="L39" t="s">
-        <v>73</v>
-      </c>
-      <c r="M39">
-        <v>1389.437485876266</v>
-      </c>
-      <c r="N39">
-        <v>289.7880009581042</v>
-      </c>
-      <c r="O39">
-        <v>1389.437485876266</v>
-      </c>
-      <c r="P39">
-        <v>377.0007827554707</v>
-      </c>
-      <c r="Q39">
-        <v>0.582726049611217</v>
-      </c>
-      <c r="S39">
-        <v>2.364693939550456</v>
-      </c>
-      <c r="T39">
-        <v>0.1439576275270997</v>
-      </c>
-      <c r="U39">
-        <v>1.165452099222434</v>
-      </c>
-      <c r="V39" t="s">
-        <v>73</v>
-      </c>
-      <c r="W39">
-        <v>1266.356606469234</v>
-      </c>
-      <c r="X39">
-        <v>17.01643481827561</v>
-      </c>
-      <c r="Y39">
-        <v>0.5079452153840948</v>
-      </c>
-      <c r="Z39">
-        <v>1410.662305323734</v>
-      </c>
-      <c r="AA39">
-        <v>27.82347683178125</v>
-      </c>
-      <c r="AB39">
-        <v>0.5242435537051364</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31">
-      <c r="A40" s="1">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40">
-        <v>102.734128516593</v>
-      </c>
-      <c r="D40">
-        <v>1286.689608105534</v>
-      </c>
-      <c r="E40">
-        <v>244.9736880473542</v>
-      </c>
-      <c r="F40">
-        <v>1286.689608105534</v>
-      </c>
-      <c r="G40">
-        <v>309.7026757285485</v>
-      </c>
-      <c r="H40">
-        <v>0.5938193628948731</v>
-      </c>
-      <c r="I40">
-        <v>3.242024337086708</v>
-      </c>
-      <c r="J40">
-        <v>6.39637608791932E-05</v>
-      </c>
-      <c r="K40">
-        <v>1.187638725789746</v>
-      </c>
-      <c r="L40" t="s">
-        <v>73</v>
-      </c>
-      <c r="M40">
-        <v>1389.423786624628</v>
-      </c>
-      <c r="N40">
-        <v>387.276630841854</v>
-      </c>
-      <c r="O40">
-        <v>1389.423736622128</v>
-      </c>
-      <c r="P40">
-        <v>500.0061764243574</v>
-      </c>
-      <c r="Q40">
-        <v>0.5834588104829956</v>
-      </c>
-      <c r="S40">
-        <v>2.468755045442719</v>
-      </c>
-      <c r="T40">
-        <v>0.117590920776902</v>
-      </c>
-      <c r="U40">
-        <v>1.166917620965991</v>
-      </c>
-      <c r="V40" t="s">
-        <v>73</v>
-      </c>
-      <c r="W40">
-        <v>1266.095110302755</v>
-      </c>
-      <c r="X40">
-        <v>19.23975372240503</v>
-      </c>
-      <c r="Y40">
-        <v>0.6989055443704426</v>
-      </c>
-      <c r="Z40">
-        <v>1410.673321921606</v>
-      </c>
-      <c r="AA40">
-        <v>42.3187569527814</v>
-      </c>
-      <c r="AB40">
-        <v>0.5817867568000289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31">
-      <c r="A41" s="1">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41">
-        <v>102.7610786908983</v>
-      </c>
-      <c r="D41">
-        <v>1286.675256972716</v>
-      </c>
-      <c r="E41">
-        <v>219.2687636623541</v>
-      </c>
-      <c r="F41">
-        <v>1286.675306975216</v>
-      </c>
-      <c r="G41">
-        <v>281.6102979574043</v>
-      </c>
-      <c r="H41">
-        <v>0.6029023052102631</v>
-      </c>
-      <c r="I41">
-        <v>5.73019064418228</v>
-      </c>
-      <c r="J41">
-        <v>0.001875364542617164</v>
-      </c>
-      <c r="K41">
-        <v>1.205804610420526</v>
-      </c>
-      <c r="L41" t="s">
-        <v>73</v>
-      </c>
-      <c r="M41">
-        <v>1389.436385666114</v>
-      </c>
-      <c r="N41">
-        <v>346.6613021637617</v>
-      </c>
-      <c r="O41">
-        <v>1389.436385666114</v>
-      </c>
-      <c r="P41">
-        <v>432.3159193333735</v>
-      </c>
-      <c r="Q41">
-        <v>0.5857737147394104</v>
-      </c>
-      <c r="S41">
-        <v>2.889239476325914</v>
-      </c>
-      <c r="T41">
-        <v>2.697441430399294E-05</v>
-      </c>
-      <c r="U41">
-        <v>1.171547429478821</v>
-      </c>
-      <c r="V41" t="s">
-        <v>73</v>
-      </c>
-      <c r="W41">
-        <v>1266.538485819774</v>
-      </c>
-      <c r="X41">
-        <v>16.75473498248556</v>
-      </c>
-      <c r="Y41">
-        <v>0.36194393083912</v>
-      </c>
-      <c r="Z41">
-        <v>1410.544648816307</v>
-      </c>
-      <c r="AA41">
-        <v>33.81123679889354</v>
-      </c>
-      <c r="AB41">
-        <v>0.481651204850689</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31">
-      <c r="A42" s="1">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42">
-        <v>102.7277060591155</v>
-      </c>
-      <c r="D42">
-        <v>1286.707689760344</v>
-      </c>
-      <c r="E42">
-        <v>155.7591743579446</v>
-      </c>
-      <c r="F42">
-        <v>1286.707689760344</v>
-      </c>
-      <c r="G42">
-        <v>208.1249559365736</v>
-      </c>
-      <c r="H42">
-        <v>0.6235608060643234</v>
-      </c>
-      <c r="I42">
-        <v>2.965047668134913</v>
-      </c>
-      <c r="J42">
-        <v>3.046736501977065E-08</v>
-      </c>
-      <c r="K42">
-        <v>1.247121612128647</v>
-      </c>
-      <c r="L42" t="s">
-        <v>73</v>
-      </c>
-      <c r="M42">
-        <v>1389.435395819459</v>
-      </c>
-      <c r="N42">
-        <v>264.1183842438014</v>
-      </c>
-      <c r="O42">
-        <v>1389.435395819459</v>
-      </c>
-      <c r="P42">
-        <v>321.3494653853786</v>
-      </c>
-      <c r="Q42">
-        <v>0.5715000684244254</v>
-      </c>
-      <c r="S42">
-        <v>2.650008792734035</v>
-      </c>
-      <c r="T42">
-        <v>3.250803074561492E-06</v>
-      </c>
-      <c r="U42">
-        <v>1.143000136848851</v>
-      </c>
-      <c r="V42" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z42">
-        <v>1410.700526720248</v>
-      </c>
-      <c r="AA42">
-        <v>22.42473067468594</v>
-      </c>
-      <c r="AB42">
-        <v>0.6065234816473117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31">
-      <c r="A43" s="1">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43">
-        <v>102.7305120710907</v>
-      </c>
-      <c r="D43">
-        <v>1286.713763863166</v>
-      </c>
-      <c r="E43">
-        <v>130.180532074986</v>
-      </c>
-      <c r="F43">
-        <v>1286.713813865666</v>
-      </c>
-      <c r="G43">
-        <v>168.1835479187667</v>
-      </c>
-      <c r="H43">
-        <v>0.6068412188464316</v>
-      </c>
-      <c r="I43">
-        <v>3.479940986776955</v>
-      </c>
-      <c r="J43">
-        <v>1.34224459419352E-06</v>
-      </c>
-      <c r="K43">
-        <v>1.213682437692863</v>
-      </c>
-      <c r="L43" t="s">
-        <v>73</v>
-      </c>
-      <c r="M43">
-        <v>1389.444375939257</v>
-      </c>
-      <c r="N43">
-        <v>233.3289597293797</v>
-      </c>
-      <c r="O43">
-        <v>1389.444325936757</v>
-      </c>
-      <c r="P43">
-        <v>284.1507128441351</v>
-      </c>
-      <c r="Q43">
-        <v>0.5200813470845763</v>
-      </c>
-      <c r="S43">
-        <v>2.806061129786361</v>
-      </c>
-      <c r="T43">
-        <v>0.2817300605742443</v>
-      </c>
-      <c r="U43">
-        <v>1.040162694169153</v>
-      </c>
-      <c r="V43" t="s">
-        <v>73</v>
-      </c>
-      <c r="W43">
-        <v>1266.472171567633</v>
-      </c>
-      <c r="X43">
-        <v>10.21902384745983</v>
-      </c>
-      <c r="Y43">
-        <v>0.3865478796841613</v>
-      </c>
-      <c r="Z43">
-        <v>1410.668572404536</v>
-      </c>
-      <c r="AA43">
-        <v>22.04781675749843</v>
-      </c>
-      <c r="AB43">
-        <v>0.525250754626383</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31">
-      <c r="A44" s="1">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44">
-        <v>102.7589230928222</v>
-      </c>
-      <c r="D44">
-        <v>1286.686840522868</v>
-      </c>
-      <c r="E44">
-        <v>125.4441478147111</v>
-      </c>
-      <c r="F44">
-        <v>1286.686840522868</v>
-      </c>
-      <c r="G44">
-        <v>154.1089831261463</v>
-      </c>
-      <c r="H44">
-        <v>0.5770525187632496</v>
-      </c>
-      <c r="I44">
-        <v>3.32524507613781</v>
-      </c>
-      <c r="J44">
-        <v>1.211610201057312E-09</v>
-      </c>
-      <c r="K44">
-        <v>1.154105037526499</v>
-      </c>
-      <c r="L44" t="s">
-        <v>73</v>
-      </c>
-      <c r="M44">
-        <v>1389.445813618191</v>
-      </c>
-      <c r="N44">
-        <v>191.3164696685896</v>
-      </c>
-      <c r="O44">
-        <v>1389.445763615691</v>
-      </c>
-      <c r="P44">
-        <v>485.4024173648132</v>
-      </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-      <c r="S44">
-        <v>6.172413044070529</v>
-      </c>
-      <c r="T44">
-        <v>0.5</v>
-      </c>
-      <c r="U44">
-        <v>2</v>
-      </c>
-      <c r="V44" t="s">
-        <v>73</v>
-      </c>
-      <c r="W44">
-        <v>1266.501341098302</v>
-      </c>
-      <c r="X44">
-        <v>7.755633165696673</v>
-      </c>
-      <c r="Y44">
-        <v>0.4654323476025005</v>
-      </c>
-      <c r="Z44">
-        <v>1409.300074</v>
-      </c>
-      <c r="AA44">
-        <v>267.0158974509757</v>
-      </c>
-      <c r="AB44">
-        <v>0.5662307984833664</v>
+        <v>0.6081205455923355</v>
+      </c>
+      <c r="AC35">
+        <v>1371.183684888526</v>
+      </c>
+      <c r="AD35">
+        <v>25.6267695536324</v>
+      </c>
+      <c r="AE35">
+        <v>0.2914075732165767</v>
+      </c>
+      <c r="AF35">
+        <v>1390.06955259625</v>
+      </c>
+      <c r="AG35">
+        <v>51.29854307716887</v>
+      </c>
+      <c r="AH35">
+        <v>1.748445477915376</v>
       </c>
     </row>
   </sheetData>
